--- a/data/data_kesehatan.xlsx
+++ b/data/data_kesehatan.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Maternal Health Risk Data Set" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -411,16 +411,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1015"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A898" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F909" sqref="F909"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.875" customWidth="1"/>
+    <col min="4" max="5" width="21.75" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="1">
-        <f>CONVERT(D2,"F","C")</f>
+        <f t="shared" ref="E2:E65" si="0">CONVERT(D2,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F2" s="1">
@@ -484,7 +484,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="1">
-        <f>CONVERT(D3,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F3" s="1">
@@ -508,7 +508,7 @@
         <v>100</v>
       </c>
       <c r="E4" s="1">
-        <f>CONVERT(D4,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F4" s="1">
@@ -532,7 +532,7 @@
         <v>98</v>
       </c>
       <c r="E5" s="1">
-        <f>CONVERT(D5,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F5" s="1">
@@ -556,7 +556,7 @@
         <v>98</v>
       </c>
       <c r="E6" s="1">
-        <f>CONVERT(D6,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F6" s="1">
@@ -580,7 +580,7 @@
         <v>98</v>
       </c>
       <c r="E7" s="1">
-        <f>CONVERT(D7,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F7" s="1">
@@ -604,7 +604,7 @@
         <v>98</v>
       </c>
       <c r="E8" s="1">
-        <f>CONVERT(D8,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F8" s="1">
@@ -628,7 +628,7 @@
         <v>102</v>
       </c>
       <c r="E9" s="1">
-        <f>CONVERT(D9,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F9" s="1">
@@ -652,7 +652,7 @@
         <v>98</v>
       </c>
       <c r="E10" s="1">
-        <f>CONVERT(D10,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F10" s="1">
@@ -676,7 +676,7 @@
         <v>98</v>
       </c>
       <c r="E11" s="1">
-        <f>CONVERT(D11,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F11" s="1">
@@ -700,7 +700,7 @@
         <v>98</v>
       </c>
       <c r="E12" s="1">
-        <f>CONVERT(D12,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F12" s="1">
@@ -724,7 +724,7 @@
         <v>98</v>
       </c>
       <c r="E13" s="1">
-        <f>CONVERT(D13,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F13" s="1">
@@ -748,7 +748,7 @@
         <v>98</v>
       </c>
       <c r="E14" s="1">
-        <f>CONVERT(D14,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F14" s="1">
@@ -772,7 +772,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="1">
-        <f>CONVERT(D15,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F15" s="1">
@@ -796,7 +796,7 @@
         <v>98</v>
       </c>
       <c r="E16" s="1">
-        <f>CONVERT(D16,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F16" s="1">
@@ -820,7 +820,7 @@
         <v>98</v>
       </c>
       <c r="E17" s="1">
-        <f>CONVERT(D17,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F17" s="1">
@@ -844,7 +844,7 @@
         <v>98</v>
       </c>
       <c r="E18" s="1">
-        <f>CONVERT(D18,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F18" s="1">
@@ -868,7 +868,7 @@
         <v>98</v>
       </c>
       <c r="E19" s="1">
-        <f>CONVERT(D19,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F19" s="1">
@@ -892,7 +892,7 @@
         <v>101</v>
       </c>
       <c r="E20" s="1">
-        <f>CONVERT(D20,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F20" s="1">
@@ -916,7 +916,7 @@
         <v>98</v>
       </c>
       <c r="E21" s="1">
-        <f>CONVERT(D21,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F21" s="1">
@@ -940,7 +940,7 @@
         <v>98</v>
       </c>
       <c r="E22" s="1">
-        <f>CONVERT(D22,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F22" s="1">
@@ -964,7 +964,7 @@
         <v>98</v>
       </c>
       <c r="E23" s="1">
-        <f>CONVERT(D23,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F23" s="1">
@@ -988,7 +988,7 @@
         <v>98</v>
       </c>
       <c r="E24" s="1">
-        <f>CONVERT(D24,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F24" s="1">
@@ -1012,7 +1012,7 @@
         <v>98</v>
       </c>
       <c r="E25" s="1">
-        <f>CONVERT(D25,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F25" s="1">
@@ -1036,7 +1036,7 @@
         <v>98</v>
       </c>
       <c r="E26" s="1">
-        <f>CONVERT(D26,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F26" s="1">
@@ -1060,7 +1060,7 @@
         <v>98</v>
       </c>
       <c r="E27" s="1">
-        <f>CONVERT(D27,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F27" s="1">
@@ -1084,7 +1084,7 @@
         <v>98</v>
       </c>
       <c r="E28" s="1">
-        <f>CONVERT(D28,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F28" s="1">
@@ -1108,7 +1108,7 @@
         <v>98</v>
       </c>
       <c r="E29" s="1">
-        <f>CONVERT(D29,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F29" s="1">
@@ -1132,7 +1132,7 @@
         <v>98</v>
       </c>
       <c r="E30" s="1">
-        <f>CONVERT(D30,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F30" s="1">
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
       <c r="E31" s="1">
-        <f>CONVERT(D31,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F31" s="1">
@@ -1180,7 +1180,7 @@
         <v>98</v>
       </c>
       <c r="E32" s="1">
-        <f>CONVERT(D32,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F32" s="1">
@@ -1204,7 +1204,7 @@
         <v>98</v>
       </c>
       <c r="E33" s="1">
-        <f>CONVERT(D33,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F33" s="1">
@@ -1228,7 +1228,7 @@
         <v>98</v>
       </c>
       <c r="E34" s="1">
-        <f>CONVERT(D34,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F34" s="1">
@@ -1252,7 +1252,7 @@
         <v>98</v>
       </c>
       <c r="E35" s="1">
-        <f>CONVERT(D35,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F35" s="1">
@@ -1276,7 +1276,7 @@
         <v>98</v>
       </c>
       <c r="E36" s="1">
-        <f>CONVERT(D36,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F36" s="1">
@@ -1300,7 +1300,7 @@
         <v>102</v>
       </c>
       <c r="E37" s="1">
-        <f>CONVERT(D37,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F37" s="1">
@@ -1324,7 +1324,7 @@
         <v>98</v>
       </c>
       <c r="E38" s="1">
-        <f>CONVERT(D38,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F38" s="1">
@@ -1348,7 +1348,7 @@
         <v>98</v>
       </c>
       <c r="E39" s="1">
-        <f>CONVERT(D39,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F39" s="1">
@@ -1372,7 +1372,7 @@
         <v>98</v>
       </c>
       <c r="E40" s="1">
-        <f>CONVERT(D40,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F40" s="1">
@@ -1396,7 +1396,7 @@
         <v>98</v>
       </c>
       <c r="E41" s="1">
-        <f>CONVERT(D41,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F41" s="1">
@@ -1420,7 +1420,7 @@
         <v>98</v>
       </c>
       <c r="E42" s="1">
-        <f>CONVERT(D42,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F42" s="1">
@@ -1444,7 +1444,7 @@
         <v>98</v>
       </c>
       <c r="E43" s="1">
-        <f>CONVERT(D43,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F43" s="1">
@@ -1468,7 +1468,7 @@
         <v>98</v>
       </c>
       <c r="E44" s="1">
-        <f>CONVERT(D44,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F44" s="1">
@@ -1492,7 +1492,7 @@
         <v>98</v>
       </c>
       <c r="E45" s="1">
-        <f>CONVERT(D45,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F45" s="1">
@@ -1516,7 +1516,7 @@
         <v>98</v>
       </c>
       <c r="E46" s="1">
-        <f>CONVERT(D46,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F46" s="1">
@@ -1540,7 +1540,7 @@
         <v>98</v>
       </c>
       <c r="E47" s="1">
-        <f>CONVERT(D47,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F47" s="1">
@@ -1564,7 +1564,7 @@
         <v>98</v>
       </c>
       <c r="E48" s="1">
-        <f>CONVERT(D48,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F48" s="1">
@@ -1588,7 +1588,7 @@
         <v>98</v>
       </c>
       <c r="E49" s="1">
-        <f>CONVERT(D49,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F49" s="1">
@@ -1612,7 +1612,7 @@
         <v>98</v>
       </c>
       <c r="E50" s="1">
-        <f>CONVERT(D50,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F50" s="1">
@@ -1636,7 +1636,7 @@
         <v>98</v>
       </c>
       <c r="E51" s="1">
-        <f>CONVERT(D51,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F51" s="1">
@@ -1660,7 +1660,7 @@
         <v>98</v>
       </c>
       <c r="E52" s="1">
-        <f>CONVERT(D52,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F52" s="1">
@@ -1684,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="E53" s="1">
-        <f>CONVERT(D53,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F53" s="1">
@@ -1708,7 +1708,7 @@
         <v>98</v>
       </c>
       <c r="E54" s="1">
-        <f>CONVERT(D54,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F54" s="1">
@@ -1732,7 +1732,7 @@
         <v>98</v>
       </c>
       <c r="E55" s="1">
-        <f>CONVERT(D55,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F55" s="1">
@@ -1756,7 +1756,7 @@
         <v>98</v>
       </c>
       <c r="E56" s="1">
-        <f>CONVERT(D56,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F56" s="1">
@@ -1780,7 +1780,7 @@
         <v>98</v>
       </c>
       <c r="E57" s="1">
-        <f>CONVERT(D57,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F57" s="1">
@@ -1804,7 +1804,7 @@
         <v>98</v>
       </c>
       <c r="E58" s="1">
-        <f>CONVERT(D58,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F58" s="1">
@@ -1828,7 +1828,7 @@
         <v>98</v>
       </c>
       <c r="E59" s="1">
-        <f>CONVERT(D59,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F59" s="1">
@@ -1852,7 +1852,7 @@
         <v>98</v>
       </c>
       <c r="E60" s="1">
-        <f>CONVERT(D60,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F60" s="1">
@@ -1876,7 +1876,7 @@
         <v>98</v>
       </c>
       <c r="E61" s="1">
-        <f>CONVERT(D61,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F61" s="1">
@@ -1900,7 +1900,7 @@
         <v>98</v>
       </c>
       <c r="E62" s="1">
-        <f>CONVERT(D62,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F62" s="1">
@@ -1924,7 +1924,7 @@
         <v>98</v>
       </c>
       <c r="E63" s="1">
-        <f>CONVERT(D63,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F63" s="1">
@@ -1948,7 +1948,7 @@
         <v>98</v>
       </c>
       <c r="E64" s="1">
-        <f>CONVERT(D64,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F64" s="1">
@@ -1972,7 +1972,7 @@
         <v>98</v>
       </c>
       <c r="E65" s="1">
-        <f>CONVERT(D65,"F","C")</f>
+        <f t="shared" si="0"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F65" s="1">
@@ -1996,7 +1996,7 @@
         <v>98</v>
       </c>
       <c r="E66" s="1">
-        <f>CONVERT(D66,"F","C")</f>
+        <f t="shared" ref="E66:E129" si="1">CONVERT(D66,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F66" s="1">
@@ -2020,7 +2020,7 @@
         <v>98</v>
       </c>
       <c r="E67" s="1">
-        <f>CONVERT(D67,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F67" s="1">
@@ -2044,7 +2044,7 @@
         <v>102</v>
       </c>
       <c r="E68" s="1">
-        <f>CONVERT(D68,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F68" s="1">
@@ -2068,7 +2068,7 @@
         <v>98</v>
       </c>
       <c r="E69" s="1">
-        <f>CONVERT(D69,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F69" s="1">
@@ -2092,7 +2092,7 @@
         <v>100</v>
       </c>
       <c r="E70" s="1">
-        <f>CONVERT(D70,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F70" s="1">
@@ -2116,7 +2116,7 @@
         <v>101</v>
       </c>
       <c r="E71" s="1">
-        <f>CONVERT(D71,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F71" s="1">
@@ -2140,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="E72" s="1">
-        <f>CONVERT(D72,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F72" s="1">
@@ -2164,7 +2164,7 @@
         <v>98</v>
       </c>
       <c r="E73" s="1">
-        <f>CONVERT(D73,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F73" s="1">
@@ -2188,7 +2188,7 @@
         <v>98</v>
       </c>
       <c r="E74" s="1">
-        <f>CONVERT(D74,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F74" s="1">
@@ -2212,7 +2212,7 @@
         <v>98</v>
       </c>
       <c r="E75" s="1">
-        <f>CONVERT(D75,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F75" s="1">
@@ -2236,7 +2236,7 @@
         <v>98</v>
       </c>
       <c r="E76" s="1">
-        <f>CONVERT(D76,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F76" s="1">
@@ -2260,7 +2260,7 @@
         <v>98</v>
       </c>
       <c r="E77" s="1">
-        <f>CONVERT(D77,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F77" s="1">
@@ -2284,7 +2284,7 @@
         <v>98</v>
       </c>
       <c r="E78" s="1">
-        <f>CONVERT(D78,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F78" s="1">
@@ -2308,7 +2308,7 @@
         <v>98</v>
       </c>
       <c r="E79" s="1">
-        <f>CONVERT(D79,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F79" s="1">
@@ -2332,7 +2332,7 @@
         <v>98</v>
       </c>
       <c r="E80" s="1">
-        <f>CONVERT(D80,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F80" s="1">
@@ -2356,7 +2356,7 @@
         <v>98</v>
       </c>
       <c r="E81" s="1">
-        <f>CONVERT(D81,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F81" s="1">
@@ -2380,7 +2380,7 @@
         <v>98</v>
       </c>
       <c r="E82" s="1">
-        <f>CONVERT(D82,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F82" s="1">
@@ -2404,7 +2404,7 @@
         <v>98</v>
       </c>
       <c r="E83" s="1">
-        <f>CONVERT(D83,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F83" s="1">
@@ -2428,7 +2428,7 @@
         <v>98</v>
       </c>
       <c r="E84" s="1">
-        <f>CONVERT(D84,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F84" s="1">
@@ -2452,7 +2452,7 @@
         <v>98</v>
       </c>
       <c r="E85" s="1">
-        <f>CONVERT(D85,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F85" s="1">
@@ -2476,7 +2476,7 @@
         <v>98</v>
       </c>
       <c r="E86" s="1">
-        <f>CONVERT(D86,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F86" s="1">
@@ -2500,7 +2500,7 @@
         <v>98</v>
       </c>
       <c r="E87" s="1">
-        <f>CONVERT(D87,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F87" s="1">
@@ -2524,7 +2524,7 @@
         <v>98</v>
       </c>
       <c r="E88" s="1">
-        <f>CONVERT(D88,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F88" s="1">
@@ -2548,7 +2548,7 @@
         <v>98</v>
       </c>
       <c r="E89" s="1">
-        <f>CONVERT(D89,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F89" s="1">
@@ -2572,7 +2572,7 @@
         <v>98</v>
       </c>
       <c r="E90" s="1">
-        <f>CONVERT(D90,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F90" s="1">
@@ -2596,7 +2596,7 @@
         <v>98</v>
       </c>
       <c r="E91" s="1">
-        <f>CONVERT(D91,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F91" s="1">
@@ -2620,7 +2620,7 @@
         <v>98</v>
       </c>
       <c r="E92" s="1">
-        <f>CONVERT(D92,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F92" s="1">
@@ -2644,7 +2644,7 @@
         <v>98</v>
       </c>
       <c r="E93" s="1">
-        <f>CONVERT(D93,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F93" s="1">
@@ -2668,7 +2668,7 @@
         <v>101</v>
       </c>
       <c r="E94" s="1">
-        <f>CONVERT(D94,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F94" s="1">
@@ -2692,7 +2692,7 @@
         <v>98</v>
       </c>
       <c r="E95" s="1">
-        <f>CONVERT(D95,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F95" s="1">
@@ -2716,7 +2716,7 @@
         <v>101</v>
       </c>
       <c r="E96" s="1">
-        <f>CONVERT(D96,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F96" s="1">
@@ -2740,7 +2740,7 @@
         <v>98</v>
       </c>
       <c r="E97" s="1">
-        <f>CONVERT(D97,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F97" s="1">
@@ -2764,7 +2764,7 @@
         <v>98</v>
       </c>
       <c r="E98" s="1">
-        <f>CONVERT(D98,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F98" s="1">
@@ -2788,7 +2788,7 @@
         <v>98</v>
       </c>
       <c r="E99" s="1">
-        <f>CONVERT(D99,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F99" s="1">
@@ -2812,7 +2812,7 @@
         <v>98</v>
       </c>
       <c r="E100" s="1">
-        <f>CONVERT(D100,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F100" s="1">
@@ -2836,7 +2836,7 @@
         <v>98</v>
       </c>
       <c r="E101" s="1">
-        <f>CONVERT(D101,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F101" s="1">
@@ -2860,7 +2860,7 @@
         <v>98</v>
       </c>
       <c r="E102" s="1">
-        <f>CONVERT(D102,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F102" s="1">
@@ -2884,7 +2884,7 @@
         <v>98</v>
       </c>
       <c r="E103" s="1">
-        <f>CONVERT(D103,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F103" s="1">
@@ -2908,7 +2908,7 @@
         <v>98</v>
       </c>
       <c r="E104" s="1">
-        <f>CONVERT(D104,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F104" s="1">
@@ -2932,7 +2932,7 @@
         <v>98</v>
       </c>
       <c r="E105" s="1">
-        <f>CONVERT(D105,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F105" s="1">
@@ -2956,7 +2956,7 @@
         <v>98</v>
       </c>
       <c r="E106" s="1">
-        <f>CONVERT(D106,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F106" s="1">
@@ -2980,7 +2980,7 @@
         <v>102</v>
       </c>
       <c r="E107" s="1">
-        <f>CONVERT(D107,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F107" s="1">
@@ -3004,7 +3004,7 @@
         <v>98</v>
       </c>
       <c r="E108" s="1">
-        <f>CONVERT(D108,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F108" s="1">
@@ -3028,7 +3028,7 @@
         <v>98</v>
       </c>
       <c r="E109" s="1">
-        <f>CONVERT(D109,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F109" s="1">
@@ -3052,7 +3052,7 @@
         <v>98</v>
       </c>
       <c r="E110" s="1">
-        <f>CONVERT(D110,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F110" s="1">
@@ -3076,7 +3076,7 @@
         <v>98</v>
       </c>
       <c r="E111" s="1">
-        <f>CONVERT(D111,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F111" s="1">
@@ -3100,7 +3100,7 @@
         <v>98</v>
       </c>
       <c r="E112" s="1">
-        <f>CONVERT(D112,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F112" s="1">
@@ -3124,7 +3124,7 @@
         <v>101</v>
       </c>
       <c r="E113" s="1">
-        <f>CONVERT(D113,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F113" s="1">
@@ -3148,7 +3148,7 @@
         <v>98</v>
       </c>
       <c r="E114" s="1">
-        <f>CONVERT(D114,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F114" s="1">
@@ -3172,7 +3172,7 @@
         <v>98</v>
       </c>
       <c r="E115" s="1">
-        <f>CONVERT(D115,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F115" s="1">
@@ -3196,7 +3196,7 @@
         <v>98</v>
       </c>
       <c r="E116" s="1">
-        <f>CONVERT(D116,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F116" s="1">
@@ -3220,7 +3220,7 @@
         <v>98</v>
       </c>
       <c r="E117" s="1">
-        <f>CONVERT(D117,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F117" s="1">
@@ -3244,7 +3244,7 @@
         <v>101</v>
       </c>
       <c r="E118" s="1">
-        <f>CONVERT(D118,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F118" s="1">
@@ -3268,7 +3268,7 @@
         <v>98</v>
       </c>
       <c r="E119" s="1">
-        <f>CONVERT(D119,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F119" s="1">
@@ -3292,7 +3292,7 @@
         <v>98</v>
       </c>
       <c r="E120" s="1">
-        <f>CONVERT(D120,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F120" s="1">
@@ -3316,7 +3316,7 @@
         <v>98</v>
       </c>
       <c r="E121" s="1">
-        <f>CONVERT(D121,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F121" s="1">
@@ -3340,7 +3340,7 @@
         <v>98</v>
       </c>
       <c r="E122" s="1">
-        <f>CONVERT(D122,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F122" s="1">
@@ -3364,7 +3364,7 @@
         <v>98</v>
       </c>
       <c r="E123" s="1">
-        <f>CONVERT(D123,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F123" s="1">
@@ -3388,7 +3388,7 @@
         <v>98</v>
       </c>
       <c r="E124" s="1">
-        <f>CONVERT(D124,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F124" s="1">
@@ -3412,7 +3412,7 @@
         <v>98</v>
       </c>
       <c r="E125" s="1">
-        <f>CONVERT(D125,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F125" s="1">
@@ -3436,7 +3436,7 @@
         <v>98</v>
       </c>
       <c r="E126" s="1">
-        <f>CONVERT(D126,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F126" s="1">
@@ -3460,7 +3460,7 @@
         <v>98</v>
       </c>
       <c r="E127" s="1">
-        <f>CONVERT(D127,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F127" s="1">
@@ -3484,7 +3484,7 @@
         <v>98</v>
       </c>
       <c r="E128" s="1">
-        <f>CONVERT(D128,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F128" s="1">
@@ -3508,7 +3508,7 @@
         <v>98</v>
       </c>
       <c r="E129" s="1">
-        <f>CONVERT(D129,"F","C")</f>
+        <f t="shared" si="1"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F129" s="1">
@@ -3532,7 +3532,7 @@
         <v>98</v>
       </c>
       <c r="E130" s="1">
-        <f>CONVERT(D130,"F","C")</f>
+        <f t="shared" ref="E130:E193" si="2">CONVERT(D130,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F130" s="1">
@@ -3556,7 +3556,7 @@
         <v>98</v>
       </c>
       <c r="E131" s="1">
-        <f>CONVERT(D131,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F131" s="1">
@@ -3580,7 +3580,7 @@
         <v>98</v>
       </c>
       <c r="E132" s="1">
-        <f>CONVERT(D132,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F132" s="1">
@@ -3604,7 +3604,7 @@
         <v>98</v>
       </c>
       <c r="E133" s="1">
-        <f>CONVERT(D133,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F133" s="1">
@@ -3628,7 +3628,7 @@
         <v>98</v>
       </c>
       <c r="E134" s="1">
-        <f>CONVERT(D134,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F134" s="1">
@@ -3652,7 +3652,7 @@
         <v>98</v>
       </c>
       <c r="E135" s="1">
-        <f>CONVERT(D135,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F135" s="1">
@@ -3676,7 +3676,7 @@
         <v>98</v>
       </c>
       <c r="E136" s="1">
-        <f>CONVERT(D136,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F136" s="1">
@@ -3700,7 +3700,7 @@
         <v>102</v>
       </c>
       <c r="E137" s="1">
-        <f>CONVERT(D137,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F137" s="1">
@@ -3724,7 +3724,7 @@
         <v>98</v>
       </c>
       <c r="E138" s="1">
-        <f>CONVERT(D138,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F138" s="1">
@@ -3748,7 +3748,7 @@
         <v>98</v>
       </c>
       <c r="E139" s="1">
-        <f>CONVERT(D139,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F139" s="1">
@@ -3772,7 +3772,7 @@
         <v>98</v>
       </c>
       <c r="E140" s="1">
-        <f>CONVERT(D140,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F140" s="1">
@@ -3796,7 +3796,7 @@
         <v>102</v>
       </c>
       <c r="E141" s="1">
-        <f>CONVERT(D141,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F141" s="1">
@@ -3820,7 +3820,7 @@
         <v>98</v>
       </c>
       <c r="E142" s="1">
-        <f>CONVERT(D142,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F142" s="1">
@@ -3844,7 +3844,7 @@
         <v>101</v>
       </c>
       <c r="E143" s="1">
-        <f>CONVERT(D143,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F143" s="1">
@@ -3868,7 +3868,7 @@
         <v>101</v>
       </c>
       <c r="E144" s="1">
-        <f>CONVERT(D144,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F144" s="1">
@@ -3892,7 +3892,7 @@
         <v>101</v>
       </c>
       <c r="E145" s="1">
-        <f>CONVERT(D145,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F145" s="1">
@@ -3916,7 +3916,7 @@
         <v>102</v>
       </c>
       <c r="E146" s="1">
-        <f>CONVERT(D146,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F146" s="1">
@@ -3940,7 +3940,7 @@
         <v>101</v>
       </c>
       <c r="E147" s="1">
-        <f>CONVERT(D147,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F147" s="1">
@@ -3964,7 +3964,7 @@
         <v>98</v>
       </c>
       <c r="E148" s="1">
-        <f>CONVERT(D148,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F148" s="1">
@@ -3988,7 +3988,7 @@
         <v>98</v>
       </c>
       <c r="E149" s="1">
-        <f>CONVERT(D149,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F149" s="1">
@@ -4012,7 +4012,7 @@
         <v>98</v>
       </c>
       <c r="E150" s="1">
-        <f>CONVERT(D150,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F150" s="1">
@@ -4036,7 +4036,7 @@
         <v>98</v>
       </c>
       <c r="E151" s="1">
-        <f>CONVERT(D151,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F151" s="1">
@@ -4060,7 +4060,7 @@
         <v>98</v>
       </c>
       <c r="E152" s="1">
-        <f>CONVERT(D152,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F152" s="1">
@@ -4084,7 +4084,7 @@
         <v>98</v>
       </c>
       <c r="E153" s="1">
-        <f>CONVERT(D153,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F153" s="1">
@@ -4108,7 +4108,7 @@
         <v>101</v>
       </c>
       <c r="E154" s="1">
-        <f>CONVERT(D154,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F154" s="1">
@@ -4132,7 +4132,7 @@
         <v>98</v>
       </c>
       <c r="E155" s="1">
-        <f>CONVERT(D155,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F155" s="1">
@@ -4156,7 +4156,7 @@
         <v>98</v>
       </c>
       <c r="E156" s="1">
-        <f>CONVERT(D156,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F156" s="1">
@@ -4180,7 +4180,7 @@
         <v>98</v>
       </c>
       <c r="E157" s="1">
-        <f>CONVERT(D157,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F157" s="1">
@@ -4204,7 +4204,7 @@
         <v>98</v>
       </c>
       <c r="E158" s="1">
-        <f>CONVERT(D158,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F158" s="1">
@@ -4228,7 +4228,7 @@
         <v>98</v>
       </c>
       <c r="E159" s="1">
-        <f>CONVERT(D159,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F159" s="1">
@@ -4252,7 +4252,7 @@
         <v>98</v>
       </c>
       <c r="E160" s="1">
-        <f>CONVERT(D160,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F160" s="1">
@@ -4276,7 +4276,7 @@
         <v>98</v>
       </c>
       <c r="E161" s="1">
-        <f>CONVERT(D161,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F161" s="1">
@@ -4300,7 +4300,7 @@
         <v>98</v>
       </c>
       <c r="E162" s="1">
-        <f>CONVERT(D162,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F162" s="1">
@@ -4324,7 +4324,7 @@
         <v>98</v>
       </c>
       <c r="E163" s="1">
-        <f>CONVERT(D163,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F163" s="1">
@@ -4348,7 +4348,7 @@
         <v>98</v>
       </c>
       <c r="E164" s="1">
-        <f>CONVERT(D164,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F164" s="1">
@@ -4372,7 +4372,7 @@
         <v>98</v>
       </c>
       <c r="E165" s="1">
-        <f>CONVERT(D165,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F165" s="1">
@@ -4396,7 +4396,7 @@
         <v>98</v>
       </c>
       <c r="E166" s="1">
-        <f>CONVERT(D166,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F166" s="1">
@@ -4420,7 +4420,7 @@
         <v>98</v>
       </c>
       <c r="E167" s="1">
-        <f>CONVERT(D167,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F167" s="1">
@@ -4444,7 +4444,7 @@
         <v>98</v>
       </c>
       <c r="E168" s="1">
-        <f>CONVERT(D168,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F168" s="1">
@@ -4468,7 +4468,7 @@
         <v>98</v>
       </c>
       <c r="E169" s="1">
-        <f>CONVERT(D169,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F169" s="1">
@@ -4492,7 +4492,7 @@
         <v>98</v>
       </c>
       <c r="E170" s="1">
-        <f>CONVERT(D170,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F170" s="1">
@@ -4516,7 +4516,7 @@
         <v>98</v>
       </c>
       <c r="E171" s="1">
-        <f>CONVERT(D171,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F171" s="1">
@@ -4540,7 +4540,7 @@
         <v>98</v>
       </c>
       <c r="E172" s="1">
-        <f>CONVERT(D172,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F172" s="1">
@@ -4564,7 +4564,7 @@
         <v>102</v>
       </c>
       <c r="E173" s="1">
-        <f>CONVERT(D173,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F173" s="1">
@@ -4588,7 +4588,7 @@
         <v>98</v>
       </c>
       <c r="E174" s="1">
-        <f>CONVERT(D174,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F174" s="1">
@@ -4612,7 +4612,7 @@
         <v>98</v>
       </c>
       <c r="E175" s="1">
-        <f>CONVERT(D175,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F175" s="1">
@@ -4636,7 +4636,7 @@
         <v>98</v>
       </c>
       <c r="E176" s="1">
-        <f>CONVERT(D176,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F176" s="1">
@@ -4660,7 +4660,7 @@
         <v>98</v>
       </c>
       <c r="E177" s="1">
-        <f>CONVERT(D177,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F177" s="1">
@@ -4684,7 +4684,7 @@
         <v>98</v>
       </c>
       <c r="E178" s="1">
-        <f>CONVERT(D178,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F178" s="1">
@@ -4708,7 +4708,7 @@
         <v>98</v>
       </c>
       <c r="E179" s="1">
-        <f>CONVERT(D179,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F179" s="1">
@@ -4732,7 +4732,7 @@
         <v>98</v>
       </c>
       <c r="E180" s="1">
-        <f>CONVERT(D180,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F180" s="1">
@@ -4756,7 +4756,7 @@
         <v>98</v>
       </c>
       <c r="E181" s="1">
-        <f>CONVERT(D181,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F181" s="1">
@@ -4780,7 +4780,7 @@
         <v>102</v>
       </c>
       <c r="E182" s="1">
-        <f>CONVERT(D182,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F182" s="1">
@@ -4804,7 +4804,7 @@
         <v>98</v>
       </c>
       <c r="E183" s="1">
-        <f>CONVERT(D183,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F183" s="1">
@@ -4828,7 +4828,7 @@
         <v>98</v>
       </c>
       <c r="E184" s="1">
-        <f>CONVERT(D184,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F184" s="1">
@@ -4852,7 +4852,7 @@
         <v>98</v>
       </c>
       <c r="E185" s="1">
-        <f>CONVERT(D185,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F185" s="1">
@@ -4876,7 +4876,7 @@
         <v>98</v>
       </c>
       <c r="E186" s="1">
-        <f>CONVERT(D186,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F186" s="1">
@@ -4900,7 +4900,7 @@
         <v>98</v>
       </c>
       <c r="E187" s="1">
-        <f>CONVERT(D187,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F187" s="1">
@@ -4924,7 +4924,7 @@
         <v>98</v>
       </c>
       <c r="E188" s="1">
-        <f>CONVERT(D188,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F188" s="1">
@@ -4948,7 +4948,7 @@
         <v>98</v>
       </c>
       <c r="E189" s="1">
-        <f>CONVERT(D189,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F189" s="1">
@@ -4972,7 +4972,7 @@
         <v>98</v>
       </c>
       <c r="E190" s="1">
-        <f>CONVERT(D190,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F190" s="1">
@@ -4996,7 +4996,7 @@
         <v>101</v>
       </c>
       <c r="E191" s="1">
-        <f>CONVERT(D191,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F191" s="1">
@@ -5020,7 +5020,7 @@
         <v>98</v>
       </c>
       <c r="E192" s="1">
-        <f>CONVERT(D192,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F192" s="1">
@@ -5044,7 +5044,7 @@
         <v>103</v>
       </c>
       <c r="E193" s="1">
-        <f>CONVERT(D193,"F","C")</f>
+        <f t="shared" si="2"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F193" s="1">
@@ -5068,7 +5068,7 @@
         <v>101</v>
       </c>
       <c r="E194" s="1">
-        <f>CONVERT(D194,"F","C")</f>
+        <f t="shared" ref="E194:E257" si="3">CONVERT(D194,"F","C")</f>
         <v>38.333333333333336</v>
       </c>
       <c r="F194" s="1">
@@ -5092,7 +5092,7 @@
         <v>98</v>
       </c>
       <c r="E195" s="1">
-        <f>CONVERT(D195,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F195" s="1">
@@ -5116,7 +5116,7 @@
         <v>98</v>
       </c>
       <c r="E196" s="1">
-        <f>CONVERT(D196,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F196" s="1">
@@ -5140,7 +5140,7 @@
         <v>98</v>
       </c>
       <c r="E197" s="1">
-        <f>CONVERT(D197,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F197" s="1">
@@ -5164,7 +5164,7 @@
         <v>98</v>
       </c>
       <c r="E198" s="1">
-        <f>CONVERT(D198,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F198" s="1">
@@ -5188,7 +5188,7 @@
         <v>98</v>
       </c>
       <c r="E199" s="1">
-        <f>CONVERT(D199,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F199" s="1">
@@ -5212,7 +5212,7 @@
         <v>98</v>
       </c>
       <c r="E200" s="1">
-        <f>CONVERT(D200,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F200" s="1">
@@ -5236,7 +5236,7 @@
         <v>102</v>
       </c>
       <c r="E201" s="1">
-        <f>CONVERT(D201,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F201" s="1">
@@ -5260,7 +5260,7 @@
         <v>98</v>
       </c>
       <c r="E202" s="1">
-        <f>CONVERT(D202,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F202" s="1">
@@ -5284,7 +5284,7 @@
         <v>98</v>
       </c>
       <c r="E203" s="1">
-        <f>CONVERT(D203,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F203" s="1">
@@ -5308,7 +5308,7 @@
         <v>98</v>
       </c>
       <c r="E204" s="1">
-        <f>CONVERT(D204,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F204" s="1">
@@ -5332,7 +5332,7 @@
         <v>98</v>
       </c>
       <c r="E205" s="1">
-        <f>CONVERT(D205,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F205" s="1">
@@ -5356,7 +5356,7 @@
         <v>98</v>
       </c>
       <c r="E206" s="1">
-        <f>CONVERT(D206,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F206" s="1">
@@ -5380,7 +5380,7 @@
         <v>98</v>
       </c>
       <c r="E207" s="1">
-        <f>CONVERT(D207,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F207" s="1">
@@ -5404,7 +5404,7 @@
         <v>98</v>
       </c>
       <c r="E208" s="1">
-        <f>CONVERT(D208,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F208" s="1">
@@ -5428,7 +5428,7 @@
         <v>98</v>
       </c>
       <c r="E209" s="1">
-        <f>CONVERT(D209,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F209" s="1">
@@ -5452,7 +5452,7 @@
         <v>98</v>
       </c>
       <c r="E210" s="1">
-        <f>CONVERT(D210,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F210" s="1">
@@ -5476,7 +5476,7 @@
         <v>98</v>
       </c>
       <c r="E211" s="1">
-        <f>CONVERT(D211,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F211" s="1">
@@ -5500,7 +5500,7 @@
         <v>98</v>
       </c>
       <c r="E212" s="1">
-        <f>CONVERT(D212,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F212" s="1">
@@ -5524,7 +5524,7 @@
         <v>98</v>
       </c>
       <c r="E213" s="1">
-        <f>CONVERT(D213,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F213" s="1">
@@ -5548,7 +5548,7 @@
         <v>98</v>
       </c>
       <c r="E214" s="1">
-        <f>CONVERT(D214,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F214" s="1">
@@ -5572,7 +5572,7 @@
         <v>98</v>
       </c>
       <c r="E215" s="1">
-        <f>CONVERT(D215,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F215" s="1">
@@ -5596,7 +5596,7 @@
         <v>101</v>
       </c>
       <c r="E216" s="1">
-        <f>CONVERT(D216,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F216" s="1">
@@ -5620,7 +5620,7 @@
         <v>98</v>
       </c>
       <c r="E217" s="1">
-        <f>CONVERT(D217,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F217" s="1">
@@ -5644,7 +5644,7 @@
         <v>98</v>
       </c>
       <c r="E218" s="1">
-        <f>CONVERT(D218,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F218" s="1">
@@ -5668,7 +5668,7 @@
         <v>98</v>
       </c>
       <c r="E219" s="1">
-        <f>CONVERT(D219,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F219" s="1">
@@ -5692,7 +5692,7 @@
         <v>98</v>
       </c>
       <c r="E220" s="1">
-        <f>CONVERT(D220,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F220" s="1">
@@ -5716,7 +5716,7 @@
         <v>98</v>
       </c>
       <c r="E221" s="1">
-        <f>CONVERT(D221,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F221" s="1">
@@ -5740,7 +5740,7 @@
         <v>98</v>
       </c>
       <c r="E222" s="1">
-        <f>CONVERT(D222,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F222" s="1">
@@ -5764,7 +5764,7 @@
         <v>102</v>
       </c>
       <c r="E223" s="1">
-        <f>CONVERT(D223,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F223" s="1">
@@ -5788,7 +5788,7 @@
         <v>98</v>
       </c>
       <c r="E224" s="1">
-        <f>CONVERT(D224,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F224" s="1">
@@ -5812,7 +5812,7 @@
         <v>98</v>
       </c>
       <c r="E225" s="1">
-        <f>CONVERT(D225,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F225" s="1">
@@ -5836,7 +5836,7 @@
         <v>98</v>
       </c>
       <c r="E226" s="1">
-        <f>CONVERT(D226,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F226" s="1">
@@ -5860,7 +5860,7 @@
         <v>98</v>
       </c>
       <c r="E227" s="1">
-        <f>CONVERT(D227,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F227" s="1">
@@ -5884,7 +5884,7 @@
         <v>98</v>
       </c>
       <c r="E228" s="1">
-        <f>CONVERT(D228,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F228" s="1">
@@ -5908,7 +5908,7 @@
         <v>100</v>
       </c>
       <c r="E229" s="1">
-        <f>CONVERT(D229,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F229" s="1">
@@ -5932,7 +5932,7 @@
         <v>98</v>
       </c>
       <c r="E230" s="1">
-        <f>CONVERT(D230,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F230" s="1">
@@ -5956,7 +5956,7 @@
         <v>98</v>
       </c>
       <c r="E231" s="1">
-        <f>CONVERT(D231,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F231" s="1">
@@ -5980,7 +5980,7 @@
         <v>98</v>
       </c>
       <c r="E232" s="1">
-        <f>CONVERT(D232,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F232" s="1">
@@ -6004,7 +6004,7 @@
         <v>98</v>
       </c>
       <c r="E233" s="1">
-        <f>CONVERT(D233,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F233" s="1">
@@ -6028,7 +6028,7 @@
         <v>101</v>
       </c>
       <c r="E234" s="1">
-        <f>CONVERT(D234,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F234" s="1">
@@ -6052,7 +6052,7 @@
         <v>100</v>
       </c>
       <c r="E235" s="1">
-        <f>CONVERT(D235,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F235" s="1">
@@ -6076,7 +6076,7 @@
         <v>98</v>
       </c>
       <c r="E236" s="1">
-        <f>CONVERT(D236,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F236" s="1">
@@ -6100,7 +6100,7 @@
         <v>102</v>
       </c>
       <c r="E237" s="1">
-        <f>CONVERT(D237,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F237" s="1">
@@ -6124,7 +6124,7 @@
         <v>98</v>
       </c>
       <c r="E238" s="1">
-        <f>CONVERT(D238,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F238" s="1">
@@ -6148,7 +6148,7 @@
         <v>101</v>
       </c>
       <c r="E239" s="1">
-        <f>CONVERT(D239,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F239" s="1">
@@ -6172,7 +6172,7 @@
         <v>101</v>
       </c>
       <c r="E240" s="1">
-        <f>CONVERT(D240,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F240" s="1">
@@ -6196,7 +6196,7 @@
         <v>101</v>
       </c>
       <c r="E241" s="1">
-        <f>CONVERT(D241,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F241" s="1">
@@ -6220,7 +6220,7 @@
         <v>102</v>
       </c>
       <c r="E242" s="1">
-        <f>CONVERT(D242,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F242" s="1">
@@ -6244,7 +6244,7 @@
         <v>101</v>
       </c>
       <c r="E243" s="1">
-        <f>CONVERT(D243,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F243" s="1">
@@ -6268,7 +6268,7 @@
         <v>98</v>
       </c>
       <c r="E244" s="1">
-        <f>CONVERT(D244,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F244" s="1">
@@ -6292,7 +6292,7 @@
         <v>101</v>
       </c>
       <c r="E245" s="1">
-        <f>CONVERT(D245,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F245" s="1">
@@ -6316,7 +6316,7 @@
         <v>98</v>
       </c>
       <c r="E246" s="1">
-        <f>CONVERT(D246,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F246" s="1">
@@ -6340,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="E247" s="1">
-        <f>CONVERT(D247,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F247" s="1">
@@ -6364,7 +6364,7 @@
         <v>98</v>
       </c>
       <c r="E248" s="1">
-        <f>CONVERT(D248,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F248" s="1">
@@ -6388,7 +6388,7 @@
         <v>98</v>
       </c>
       <c r="E249" s="1">
-        <f>CONVERT(D249,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F249" s="1">
@@ -6412,7 +6412,7 @@
         <v>101</v>
       </c>
       <c r="E250" s="1">
-        <f>CONVERT(D250,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F250" s="1">
@@ -6436,7 +6436,7 @@
         <v>98</v>
       </c>
       <c r="E251" s="1">
-        <f>CONVERT(D251,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F251" s="1">
@@ -6460,7 +6460,7 @@
         <v>98</v>
       </c>
       <c r="E252" s="1">
-        <f>CONVERT(D252,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F252" s="1">
@@ -6484,7 +6484,7 @@
         <v>98</v>
       </c>
       <c r="E253" s="1">
-        <f>CONVERT(D253,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F253" s="1">
@@ -6508,7 +6508,7 @@
         <v>98</v>
       </c>
       <c r="E254" s="1">
-        <f>CONVERT(D254,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F254" s="1">
@@ -6532,7 +6532,7 @@
         <v>98</v>
       </c>
       <c r="E255" s="1">
-        <f>CONVERT(D255,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F255" s="1">
@@ -6556,7 +6556,7 @@
         <v>98</v>
       </c>
       <c r="E256" s="1">
-        <f>CONVERT(D256,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F256" s="1">
@@ -6580,7 +6580,7 @@
         <v>98</v>
       </c>
       <c r="E257" s="1">
-        <f>CONVERT(D257,"F","C")</f>
+        <f t="shared" si="3"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F257" s="1">
@@ -6604,7 +6604,7 @@
         <v>98</v>
       </c>
       <c r="E258" s="1">
-        <f>CONVERT(D258,"F","C")</f>
+        <f t="shared" ref="E258:E321" si="4">CONVERT(D258,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F258" s="1">
@@ -6628,7 +6628,7 @@
         <v>98</v>
       </c>
       <c r="E259" s="1">
-        <f>CONVERT(D259,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F259" s="1">
@@ -6652,7 +6652,7 @@
         <v>98</v>
       </c>
       <c r="E260" s="1">
-        <f>CONVERT(D260,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F260" s="1">
@@ -6676,7 +6676,7 @@
         <v>98</v>
       </c>
       <c r="E261" s="1">
-        <f>CONVERT(D261,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F261" s="1">
@@ -6700,7 +6700,7 @@
         <v>98</v>
       </c>
       <c r="E262" s="1">
-        <f>CONVERT(D262,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F262" s="1">
@@ -6724,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="E263" s="1">
-        <f>CONVERT(D263,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F263" s="1">
@@ -6748,7 +6748,7 @@
         <v>98</v>
       </c>
       <c r="E264" s="1">
-        <f>CONVERT(D264,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F264" s="1">
@@ -6772,7 +6772,7 @@
         <v>98</v>
       </c>
       <c r="E265" s="1">
-        <f>CONVERT(D265,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F265" s="1">
@@ -6796,7 +6796,7 @@
         <v>98</v>
       </c>
       <c r="E266" s="1">
-        <f>CONVERT(D266,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F266" s="1">
@@ -6820,7 +6820,7 @@
         <v>98</v>
       </c>
       <c r="E267" s="1">
-        <f>CONVERT(D267,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F267" s="1">
@@ -6844,7 +6844,7 @@
         <v>98</v>
       </c>
       <c r="E268" s="1">
-        <f>CONVERT(D268,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F268" s="1">
@@ -6868,7 +6868,7 @@
         <v>102</v>
       </c>
       <c r="E269" s="1">
-        <f>CONVERT(D269,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F269" s="1">
@@ -6892,7 +6892,7 @@
         <v>98</v>
       </c>
       <c r="E270" s="1">
-        <f>CONVERT(D270,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F270" s="1">
@@ -6916,7 +6916,7 @@
         <v>98</v>
       </c>
       <c r="E271" s="1">
-        <f>CONVERT(D271,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F271" s="1">
@@ -6940,7 +6940,7 @@
         <v>98</v>
       </c>
       <c r="E272" s="1">
-        <f>CONVERT(D272,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F272" s="1">
@@ -6964,7 +6964,7 @@
         <v>98</v>
       </c>
       <c r="E273" s="1">
-        <f>CONVERT(D273,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F273" s="1">
@@ -6988,7 +6988,7 @@
         <v>98</v>
       </c>
       <c r="E274" s="1">
-        <f>CONVERT(D274,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F274" s="1">
@@ -7012,7 +7012,7 @@
         <v>98</v>
       </c>
       <c r="E275" s="1">
-        <f>CONVERT(D275,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F275" s="1">
@@ -7036,7 +7036,7 @@
         <v>98</v>
       </c>
       <c r="E276" s="1">
-        <f>CONVERT(D276,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F276" s="1">
@@ -7060,7 +7060,7 @@
         <v>98</v>
       </c>
       <c r="E277" s="1">
-        <f>CONVERT(D277,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F277" s="1">
@@ -7084,7 +7084,7 @@
         <v>102</v>
       </c>
       <c r="E278" s="1">
-        <f>CONVERT(D278,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F278" s="1">
@@ -7108,7 +7108,7 @@
         <v>98</v>
       </c>
       <c r="E279" s="1">
-        <f>CONVERT(D279,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F279" s="1">
@@ -7132,7 +7132,7 @@
         <v>98</v>
       </c>
       <c r="E280" s="1">
-        <f>CONVERT(D280,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F280" s="1">
@@ -7156,7 +7156,7 @@
         <v>98</v>
       </c>
       <c r="E281" s="1">
-        <f>CONVERT(D281,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F281" s="1">
@@ -7180,7 +7180,7 @@
         <v>98</v>
       </c>
       <c r="E282" s="1">
-        <f>CONVERT(D282,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F282" s="1">
@@ -7204,7 +7204,7 @@
         <v>98</v>
       </c>
       <c r="E283" s="1">
-        <f>CONVERT(D283,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F283" s="1">
@@ -7228,7 +7228,7 @@
         <v>98</v>
       </c>
       <c r="E284" s="1">
-        <f>CONVERT(D284,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F284" s="1">
@@ -7252,7 +7252,7 @@
         <v>98</v>
       </c>
       <c r="E285" s="1">
-        <f>CONVERT(D285,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F285" s="1">
@@ -7276,7 +7276,7 @@
         <v>98</v>
       </c>
       <c r="E286" s="1">
-        <f>CONVERT(D286,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F286" s="1">
@@ -7300,7 +7300,7 @@
         <v>101</v>
       </c>
       <c r="E287" s="1">
-        <f>CONVERT(D287,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F287" s="1">
@@ -7324,7 +7324,7 @@
         <v>98</v>
       </c>
       <c r="E288" s="1">
-        <f>CONVERT(D288,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F288" s="1">
@@ -7348,7 +7348,7 @@
         <v>103</v>
       </c>
       <c r="E289" s="1">
-        <f>CONVERT(D289,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F289" s="1">
@@ -7372,7 +7372,7 @@
         <v>101</v>
       </c>
       <c r="E290" s="1">
-        <f>CONVERT(D290,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F290" s="1">
@@ -7396,7 +7396,7 @@
         <v>98</v>
       </c>
       <c r="E291" s="1">
-        <f>CONVERT(D291,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F291" s="1">
@@ -7420,7 +7420,7 @@
         <v>98</v>
       </c>
       <c r="E292" s="1">
-        <f>CONVERT(D292,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F292" s="1">
@@ -7444,7 +7444,7 @@
         <v>98</v>
       </c>
       <c r="E293" s="1">
-        <f>CONVERT(D293,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F293" s="1">
@@ -7468,7 +7468,7 @@
         <v>98</v>
       </c>
       <c r="E294" s="1">
-        <f>CONVERT(D294,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F294" s="1">
@@ -7492,7 +7492,7 @@
         <v>98</v>
       </c>
       <c r="E295" s="1">
-        <f>CONVERT(D295,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F295" s="1">
@@ -7516,7 +7516,7 @@
         <v>98</v>
       </c>
       <c r="E296" s="1">
-        <f>CONVERT(D296,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F296" s="1">
@@ -7540,7 +7540,7 @@
         <v>102</v>
       </c>
       <c r="E297" s="1">
-        <f>CONVERT(D297,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F297" s="1">
@@ -7564,7 +7564,7 @@
         <v>98</v>
       </c>
       <c r="E298" s="1">
-        <f>CONVERT(D298,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F298" s="1">
@@ -7588,7 +7588,7 @@
         <v>98</v>
       </c>
       <c r="E299" s="1">
-        <f>CONVERT(D299,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F299" s="1">
@@ -7612,7 +7612,7 @@
         <v>98</v>
       </c>
       <c r="E300" s="1">
-        <f>CONVERT(D300,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F300" s="1">
@@ -7636,7 +7636,7 @@
         <v>98</v>
       </c>
       <c r="E301" s="1">
-        <f>CONVERT(D301,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F301" s="1">
@@ -7660,7 +7660,7 @@
         <v>98</v>
       </c>
       <c r="E302" s="1">
-        <f>CONVERT(D302,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F302" s="1">
@@ -7684,7 +7684,7 @@
         <v>98</v>
       </c>
       <c r="E303" s="1">
-        <f>CONVERT(D303,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F303" s="1">
@@ -7708,7 +7708,7 @@
         <v>98</v>
       </c>
       <c r="E304" s="1">
-        <f>CONVERT(D304,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F304" s="1">
@@ -7732,7 +7732,7 @@
         <v>98</v>
       </c>
       <c r="E305" s="1">
-        <f>CONVERT(D305,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F305" s="1">
@@ -7756,7 +7756,7 @@
         <v>98</v>
       </c>
       <c r="E306" s="1">
-        <f>CONVERT(D306,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F306" s="1">
@@ -7780,7 +7780,7 @@
         <v>98</v>
       </c>
       <c r="E307" s="1">
-        <f>CONVERT(D307,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F307" s="1">
@@ -7804,7 +7804,7 @@
         <v>98</v>
       </c>
       <c r="E308" s="1">
-        <f>CONVERT(D308,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F308" s="1">
@@ -7828,7 +7828,7 @@
         <v>98</v>
       </c>
       <c r="E309" s="1">
-        <f>CONVERT(D309,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F309" s="1">
@@ -7852,7 +7852,7 @@
         <v>98</v>
       </c>
       <c r="E310" s="1">
-        <f>CONVERT(D310,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F310" s="1">
@@ -7876,7 +7876,7 @@
         <v>98</v>
       </c>
       <c r="E311" s="1">
-        <f>CONVERT(D311,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F311" s="1">
@@ -7900,7 +7900,7 @@
         <v>98</v>
       </c>
       <c r="E312" s="1">
-        <f>CONVERT(D312,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F312" s="1">
@@ -7924,7 +7924,7 @@
         <v>98</v>
       </c>
       <c r="E313" s="1">
-        <f>CONVERT(D313,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F313" s="1">
@@ -7948,7 +7948,7 @@
         <v>98</v>
       </c>
       <c r="E314" s="1">
-        <f>CONVERT(D314,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F314" s="1">
@@ -7972,7 +7972,7 @@
         <v>98</v>
       </c>
       <c r="E315" s="1">
-        <f>CONVERT(D315,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F315" s="1">
@@ -7996,7 +7996,7 @@
         <v>98</v>
       </c>
       <c r="E316" s="1">
-        <f>CONVERT(D316,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F316" s="1">
@@ -8020,7 +8020,7 @@
         <v>98</v>
       </c>
       <c r="E317" s="1">
-        <f>CONVERT(D317,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F317" s="1">
@@ -8044,7 +8044,7 @@
         <v>98</v>
       </c>
       <c r="E318" s="1">
-        <f>CONVERT(D318,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F318" s="1">
@@ -8068,7 +8068,7 @@
         <v>98</v>
       </c>
       <c r="E319" s="1">
-        <f>CONVERT(D319,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F319" s="1">
@@ -8092,7 +8092,7 @@
         <v>98</v>
       </c>
       <c r="E320" s="1">
-        <f>CONVERT(D320,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F320" s="1">
@@ -8116,7 +8116,7 @@
         <v>98</v>
       </c>
       <c r="E321" s="1">
-        <f>CONVERT(D321,"F","C")</f>
+        <f t="shared" si="4"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F321" s="1">
@@ -8140,7 +8140,7 @@
         <v>98</v>
       </c>
       <c r="E322" s="1">
-        <f>CONVERT(D322,"F","C")</f>
+        <f t="shared" ref="E322:E385" si="5">CONVERT(D322,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F322" s="1">
@@ -8164,7 +8164,7 @@
         <v>98</v>
       </c>
       <c r="E323" s="1">
-        <f>CONVERT(D323,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F323" s="1">
@@ -8188,7 +8188,7 @@
         <v>98</v>
       </c>
       <c r="E324" s="1">
-        <f>CONVERT(D324,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F324" s="1">
@@ -8212,7 +8212,7 @@
         <v>98</v>
       </c>
       <c r="E325" s="1">
-        <f>CONVERT(D325,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F325" s="1">
@@ -8236,7 +8236,7 @@
         <v>98</v>
       </c>
       <c r="E326" s="1">
-        <f>CONVERT(D326,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F326" s="1">
@@ -8260,7 +8260,7 @@
         <v>98</v>
       </c>
       <c r="E327" s="1">
-        <f>CONVERT(D327,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F327" s="1">
@@ -8284,7 +8284,7 @@
         <v>98</v>
       </c>
       <c r="E328" s="1">
-        <f>CONVERT(D328,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F328" s="1">
@@ -8308,7 +8308,7 @@
         <v>98</v>
       </c>
       <c r="E329" s="1">
-        <f>CONVERT(D329,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F329" s="1">
@@ -8332,7 +8332,7 @@
         <v>98</v>
       </c>
       <c r="E330" s="1">
-        <f>CONVERT(D330,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F330" s="1">
@@ -8356,7 +8356,7 @@
         <v>98</v>
       </c>
       <c r="E331" s="1">
-        <f>CONVERT(D331,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F331" s="1">
@@ -8380,7 +8380,7 @@
         <v>98</v>
       </c>
       <c r="E332" s="1">
-        <f>CONVERT(D332,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F332" s="1">
@@ -8404,7 +8404,7 @@
         <v>98</v>
       </c>
       <c r="E333" s="1">
-        <f>CONVERT(D333,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F333" s="1">
@@ -8428,7 +8428,7 @@
         <v>98</v>
       </c>
       <c r="E334" s="1">
-        <f>CONVERT(D334,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F334" s="1">
@@ -8452,7 +8452,7 @@
         <v>98</v>
       </c>
       <c r="E335" s="1">
-        <f>CONVERT(D335,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F335" s="1">
@@ -8476,7 +8476,7 @@
         <v>98</v>
       </c>
       <c r="E336" s="1">
-        <f>CONVERT(D336,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F336" s="1">
@@ -8500,7 +8500,7 @@
         <v>98</v>
       </c>
       <c r="E337" s="1">
-        <f>CONVERT(D337,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F337" s="1">
@@ -8524,7 +8524,7 @@
         <v>98</v>
       </c>
       <c r="E338" s="1">
-        <f>CONVERT(D338,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F338" s="1">
@@ -8548,7 +8548,7 @@
         <v>103</v>
       </c>
       <c r="E339" s="1">
-        <f>CONVERT(D339,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F339" s="1">
@@ -8572,7 +8572,7 @@
         <v>102</v>
       </c>
       <c r="E340" s="1">
-        <f>CONVERT(D340,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F340" s="1">
@@ -8596,7 +8596,7 @@
         <v>103</v>
       </c>
       <c r="E341" s="1">
-        <f>CONVERT(D341,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F341" s="1">
@@ -8620,7 +8620,7 @@
         <v>102</v>
       </c>
       <c r="E342" s="1">
-        <f>CONVERT(D342,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F342" s="1">
@@ -8644,7 +8644,7 @@
         <v>101</v>
       </c>
       <c r="E343" s="1">
-        <f>CONVERT(D343,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F343" s="1">
@@ -8668,7 +8668,7 @@
         <v>103</v>
       </c>
       <c r="E344" s="1">
-        <f>CONVERT(D344,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F344" s="1">
@@ -8692,7 +8692,7 @@
         <v>98</v>
       </c>
       <c r="E345" s="1">
-        <f>CONVERT(D345,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F345" s="1">
@@ -8716,7 +8716,7 @@
         <v>98</v>
       </c>
       <c r="E346" s="1">
-        <f>CONVERT(D346,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F346" s="1">
@@ -8740,7 +8740,7 @@
         <v>98</v>
       </c>
       <c r="E347" s="1">
-        <f>CONVERT(D347,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F347" s="1">
@@ -8764,7 +8764,7 @@
         <v>98</v>
       </c>
       <c r="E348" s="1">
-        <f>CONVERT(D348,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F348" s="1">
@@ -8788,7 +8788,7 @@
         <v>98</v>
       </c>
       <c r="E349" s="1">
-        <f>CONVERT(D349,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F349" s="1">
@@ -8812,7 +8812,7 @@
         <v>101</v>
       </c>
       <c r="E350" s="1">
-        <f>CONVERT(D350,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F350" s="1">
@@ -8836,7 +8836,7 @@
         <v>98</v>
       </c>
       <c r="E351" s="1">
-        <f>CONVERT(D351,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F351" s="1">
@@ -8860,7 +8860,7 @@
         <v>98</v>
       </c>
       <c r="E352" s="1">
-        <f>CONVERT(D352,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F352" s="1">
@@ -8884,7 +8884,7 @@
         <v>98</v>
       </c>
       <c r="E353" s="1">
-        <f>CONVERT(D353,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F353" s="1">
@@ -8908,7 +8908,7 @@
         <v>98</v>
       </c>
       <c r="E354" s="1">
-        <f>CONVERT(D354,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F354" s="1">
@@ -8932,7 +8932,7 @@
         <v>98</v>
       </c>
       <c r="E355" s="1">
-        <f>CONVERT(D355,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F355" s="1">
@@ -8956,7 +8956,7 @@
         <v>98</v>
       </c>
       <c r="E356" s="1">
-        <f>CONVERT(D356,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F356" s="1">
@@ -8980,7 +8980,7 @@
         <v>98</v>
       </c>
       <c r="E357" s="1">
-        <f>CONVERT(D357,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F357" s="1">
@@ -9004,7 +9004,7 @@
         <v>98</v>
       </c>
       <c r="E358" s="1">
-        <f>CONVERT(D358,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F358" s="1">
@@ -9028,7 +9028,7 @@
         <v>98</v>
       </c>
       <c r="E359" s="1">
-        <f>CONVERT(D359,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F359" s="1">
@@ -9052,7 +9052,7 @@
         <v>98</v>
       </c>
       <c r="E360" s="1">
-        <f>CONVERT(D360,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F360" s="1">
@@ -9076,7 +9076,7 @@
         <v>98</v>
       </c>
       <c r="E361" s="1">
-        <f>CONVERT(D361,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F361" s="1">
@@ -9100,7 +9100,7 @@
         <v>98</v>
       </c>
       <c r="E362" s="1">
-        <f>CONVERT(D362,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F362" s="1">
@@ -9124,7 +9124,7 @@
         <v>98</v>
       </c>
       <c r="E363" s="1">
-        <f>CONVERT(D363,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F363" s="1">
@@ -9148,7 +9148,7 @@
         <v>98</v>
       </c>
       <c r="E364" s="1">
-        <f>CONVERT(D364,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F364" s="1">
@@ -9172,7 +9172,7 @@
         <v>98</v>
       </c>
       <c r="E365" s="1">
-        <f>CONVERT(D365,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F365" s="1">
@@ -9196,7 +9196,7 @@
         <v>98</v>
       </c>
       <c r="E366" s="1">
-        <f>CONVERT(D366,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F366" s="1">
@@ -9220,7 +9220,7 @@
         <v>98</v>
       </c>
       <c r="E367" s="1">
-        <f>CONVERT(D367,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F367" s="1">
@@ -9244,7 +9244,7 @@
         <v>98</v>
       </c>
       <c r="E368" s="1">
-        <f>CONVERT(D368,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F368" s="1">
@@ -9268,7 +9268,7 @@
         <v>98</v>
       </c>
       <c r="E369" s="1">
-        <f>CONVERT(D369,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F369" s="1">
@@ -9292,7 +9292,7 @@
         <v>98</v>
       </c>
       <c r="E370" s="1">
-        <f>CONVERT(D370,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F370" s="1">
@@ -9316,7 +9316,7 @@
         <v>98</v>
       </c>
       <c r="E371" s="1">
-        <f>CONVERT(D371,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F371" s="1">
@@ -9340,7 +9340,7 @@
         <v>98</v>
       </c>
       <c r="E372" s="1">
-        <f>CONVERT(D372,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F372" s="1">
@@ -9364,7 +9364,7 @@
         <v>102</v>
       </c>
       <c r="E373" s="1">
-        <f>CONVERT(D373,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F373" s="1">
@@ -9388,7 +9388,7 @@
         <v>98</v>
       </c>
       <c r="E374" s="1">
-        <f>CONVERT(D374,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F374" s="1">
@@ -9412,7 +9412,7 @@
         <v>98</v>
       </c>
       <c r="E375" s="1">
-        <f>CONVERT(D375,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F375" s="1">
@@ -9436,7 +9436,7 @@
         <v>98</v>
       </c>
       <c r="E376" s="1">
-        <f>CONVERT(D376,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F376" s="1">
@@ -9460,7 +9460,7 @@
         <v>98</v>
       </c>
       <c r="E377" s="1">
-        <f>CONVERT(D377,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F377" s="1">
@@ -9484,7 +9484,7 @@
         <v>98</v>
       </c>
       <c r="E378" s="1">
-        <f>CONVERT(D378,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F378" s="1">
@@ -9508,7 +9508,7 @@
         <v>98</v>
       </c>
       <c r="E379" s="1">
-        <f>CONVERT(D379,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F379" s="1">
@@ -9532,7 +9532,7 @@
         <v>98</v>
       </c>
       <c r="E380" s="1">
-        <f>CONVERT(D380,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F380" s="1">
@@ -9556,7 +9556,7 @@
         <v>98</v>
       </c>
       <c r="E381" s="1">
-        <f>CONVERT(D381,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F381" s="1">
@@ -9580,7 +9580,7 @@
         <v>101</v>
       </c>
       <c r="E382" s="1">
-        <f>CONVERT(D382,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F382" s="1">
@@ -9604,7 +9604,7 @@
         <v>98</v>
       </c>
       <c r="E383" s="1">
-        <f>CONVERT(D383,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F383" s="1">
@@ -9628,7 +9628,7 @@
         <v>103</v>
       </c>
       <c r="E384" s="1">
-        <f>CONVERT(D384,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F384" s="1">
@@ -9652,7 +9652,7 @@
         <v>101</v>
       </c>
       <c r="E385" s="1">
-        <f>CONVERT(D385,"F","C")</f>
+        <f t="shared" si="5"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F385" s="1">
@@ -9676,7 +9676,7 @@
         <v>98</v>
       </c>
       <c r="E386" s="1">
-        <f>CONVERT(D386,"F","C")</f>
+        <f t="shared" ref="E386:E449" si="6">CONVERT(D386,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F386" s="1">
@@ -9700,7 +9700,7 @@
         <v>98</v>
       </c>
       <c r="E387" s="1">
-        <f>CONVERT(D387,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F387" s="1">
@@ -9724,7 +9724,7 @@
         <v>98</v>
       </c>
       <c r="E388" s="1">
-        <f>CONVERT(D388,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F388" s="1">
@@ -9748,7 +9748,7 @@
         <v>98</v>
       </c>
       <c r="E389" s="1">
-        <f>CONVERT(D389,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F389" s="1">
@@ -9772,7 +9772,7 @@
         <v>98</v>
       </c>
       <c r="E390" s="1">
-        <f>CONVERT(D390,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F390" s="1">
@@ -9796,7 +9796,7 @@
         <v>98</v>
       </c>
       <c r="E391" s="1">
-        <f>CONVERT(D391,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F391" s="1">
@@ -9820,7 +9820,7 @@
         <v>102</v>
       </c>
       <c r="E392" s="1">
-        <f>CONVERT(D392,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F392" s="1">
@@ -9844,7 +9844,7 @@
         <v>98</v>
       </c>
       <c r="E393" s="1">
-        <f>CONVERT(D393,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F393" s="1">
@@ -9868,7 +9868,7 @@
         <v>98</v>
       </c>
       <c r="E394" s="1">
-        <f>CONVERT(D394,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F394" s="1">
@@ -9892,7 +9892,7 @@
         <v>98</v>
       </c>
       <c r="E395" s="1">
-        <f>CONVERT(D395,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F395" s="1">
@@ -9916,7 +9916,7 @@
         <v>98</v>
       </c>
       <c r="E396" s="1">
-        <f>CONVERT(D396,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F396" s="1">
@@ -9940,7 +9940,7 @@
         <v>98</v>
       </c>
       <c r="E397" s="1">
-        <f>CONVERT(D397,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F397" s="1">
@@ -9964,7 +9964,7 @@
         <v>98</v>
       </c>
       <c r="E398" s="1">
-        <f>CONVERT(D398,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F398" s="1">
@@ -9988,7 +9988,7 @@
         <v>98</v>
       </c>
       <c r="E399" s="1">
-        <f>CONVERT(D399,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F399" s="1">
@@ -10012,7 +10012,7 @@
         <v>98</v>
       </c>
       <c r="E400" s="1">
-        <f>CONVERT(D400,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F400" s="1">
@@ -10036,7 +10036,7 @@
         <v>98</v>
       </c>
       <c r="E401" s="1">
-        <f>CONVERT(D401,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F401" s="1">
@@ -10060,7 +10060,7 @@
         <v>98</v>
       </c>
       <c r="E402" s="1">
-        <f>CONVERT(D402,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F402" s="1">
@@ -10084,7 +10084,7 @@
         <v>98</v>
       </c>
       <c r="E403" s="1">
-        <f>CONVERT(D403,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F403" s="1">
@@ -10108,7 +10108,7 @@
         <v>98</v>
       </c>
       <c r="E404" s="1">
-        <f>CONVERT(D404,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F404" s="1">
@@ -10132,7 +10132,7 @@
         <v>98</v>
       </c>
       <c r="E405" s="1">
-        <f>CONVERT(D405,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F405" s="1">
@@ -10156,7 +10156,7 @@
         <v>98</v>
       </c>
       <c r="E406" s="1">
-        <f>CONVERT(D406,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F406" s="1">
@@ -10180,7 +10180,7 @@
         <v>98</v>
       </c>
       <c r="E407" s="1">
-        <f>CONVERT(D407,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F407" s="1">
@@ -10204,7 +10204,7 @@
         <v>98</v>
       </c>
       <c r="E408" s="1">
-        <f>CONVERT(D408,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F408" s="1">
@@ -10228,7 +10228,7 @@
         <v>98</v>
       </c>
       <c r="E409" s="1">
-        <f>CONVERT(D409,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F409" s="1">
@@ -10252,7 +10252,7 @@
         <v>98</v>
       </c>
       <c r="E410" s="1">
-        <f>CONVERT(D410,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F410" s="1">
@@ -10276,7 +10276,7 @@
         <v>98</v>
       </c>
       <c r="E411" s="1">
-        <f>CONVERT(D411,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F411" s="1">
@@ -10300,7 +10300,7 @@
         <v>98</v>
       </c>
       <c r="E412" s="1">
-        <f>CONVERT(D412,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F412" s="1">
@@ -10324,7 +10324,7 @@
         <v>98</v>
       </c>
       <c r="E413" s="1">
-        <f>CONVERT(D413,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F413" s="1">
@@ -10348,7 +10348,7 @@
         <v>98</v>
       </c>
       <c r="E414" s="1">
-        <f>CONVERT(D414,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F414" s="1">
@@ -10372,7 +10372,7 @@
         <v>102</v>
       </c>
       <c r="E415" s="1">
-        <f>CONVERT(D415,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F415" s="1">
@@ -10396,7 +10396,7 @@
         <v>102</v>
       </c>
       <c r="E416" s="1">
-        <f>CONVERT(D416,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F416" s="1">
@@ -10420,7 +10420,7 @@
         <v>98</v>
       </c>
       <c r="E417" s="1">
-        <f>CONVERT(D417,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F417" s="1">
@@ -10444,7 +10444,7 @@
         <v>101</v>
       </c>
       <c r="E418" s="1">
-        <f>CONVERT(D418,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F418" s="1">
@@ -10468,7 +10468,7 @@
         <v>98</v>
       </c>
       <c r="E419" s="1">
-        <f>CONVERT(D419,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F419" s="1">
@@ -10492,7 +10492,7 @@
         <v>98</v>
       </c>
       <c r="E420" s="1">
-        <f>CONVERT(D420,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F420" s="1">
@@ -10516,7 +10516,7 @@
         <v>103</v>
       </c>
       <c r="E421" s="1">
-        <f>CONVERT(D421,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F421" s="1">
@@ -10540,7 +10540,7 @@
         <v>98</v>
       </c>
       <c r="E422" s="1">
-        <f>CONVERT(D422,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F422" s="1">
@@ -10564,7 +10564,7 @@
         <v>98</v>
       </c>
       <c r="E423" s="1">
-        <f>CONVERT(D423,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F423" s="1">
@@ -10588,7 +10588,7 @@
         <v>102</v>
       </c>
       <c r="E424" s="1">
-        <f>CONVERT(D424,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F424" s="1">
@@ -10612,7 +10612,7 @@
         <v>98</v>
       </c>
       <c r="E425" s="1">
-        <f>CONVERT(D425,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F425" s="1">
@@ -10636,7 +10636,7 @@
         <v>98</v>
       </c>
       <c r="E426" s="1">
-        <f>CONVERT(D426,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F426" s="1">
@@ -10660,7 +10660,7 @@
         <v>98</v>
       </c>
       <c r="E427" s="1">
-        <f>CONVERT(D427,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F427" s="1">
@@ -10684,7 +10684,7 @@
         <v>101</v>
       </c>
       <c r="E428" s="1">
-        <f>CONVERT(D428,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F428" s="1">
@@ -10708,7 +10708,7 @@
         <v>98</v>
       </c>
       <c r="E429" s="1">
-        <f>CONVERT(D429,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F429" s="1">
@@ -10732,7 +10732,7 @@
         <v>102</v>
       </c>
       <c r="E430" s="1">
-        <f>CONVERT(D430,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F430" s="1">
@@ -10756,7 +10756,7 @@
         <v>98</v>
       </c>
       <c r="E431" s="1">
-        <f>CONVERT(D431,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F431" s="1">
@@ -10780,7 +10780,7 @@
         <v>98</v>
       </c>
       <c r="E432" s="1">
-        <f>CONVERT(D432,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F432" s="1">
@@ -10804,7 +10804,7 @@
         <v>98</v>
       </c>
       <c r="E433" s="1">
-        <f>CONVERT(D433,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F433" s="1">
@@ -10828,7 +10828,7 @@
         <v>101</v>
       </c>
       <c r="E434" s="1">
-        <f>CONVERT(D434,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F434" s="1">
@@ -10852,7 +10852,7 @@
         <v>98</v>
       </c>
       <c r="E435" s="1">
-        <f>CONVERT(D435,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F435" s="1">
@@ -10876,7 +10876,7 @@
         <v>98</v>
       </c>
       <c r="E436" s="1">
-        <f>CONVERT(D436,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F436" s="1">
@@ -10900,7 +10900,7 @@
         <v>98</v>
       </c>
       <c r="E437" s="1">
-        <f>CONVERT(D437,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F437" s="1">
@@ -10924,7 +10924,7 @@
         <v>98</v>
       </c>
       <c r="E438" s="1">
-        <f>CONVERT(D438,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F438" s="1">
@@ -10948,7 +10948,7 @@
         <v>98</v>
       </c>
       <c r="E439" s="1">
-        <f>CONVERT(D439,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F439" s="1">
@@ -10972,7 +10972,7 @@
         <v>98</v>
       </c>
       <c r="E440" s="1">
-        <f>CONVERT(D440,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F440" s="1">
@@ -10996,7 +10996,7 @@
         <v>98</v>
       </c>
       <c r="E441" s="1">
-        <f>CONVERT(D441,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F441" s="1">
@@ -11020,7 +11020,7 @@
         <v>98</v>
       </c>
       <c r="E442" s="1">
-        <f>CONVERT(D442,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F442" s="1">
@@ -11044,7 +11044,7 @@
         <v>98</v>
       </c>
       <c r="E443" s="1">
-        <f>CONVERT(D443,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F443" s="1">
@@ -11068,7 +11068,7 @@
         <v>102</v>
       </c>
       <c r="E444" s="1">
-        <f>CONVERT(D444,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F444" s="1">
@@ -11092,7 +11092,7 @@
         <v>98</v>
       </c>
       <c r="E445" s="1">
-        <f>CONVERT(D445,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F445" s="1">
@@ -11116,7 +11116,7 @@
         <v>98</v>
       </c>
       <c r="E446" s="1">
-        <f>CONVERT(D446,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F446" s="1">
@@ -11140,7 +11140,7 @@
         <v>98</v>
       </c>
       <c r="E447" s="1">
-        <f>CONVERT(D447,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F447" s="1">
@@ -11164,7 +11164,7 @@
         <v>98</v>
       </c>
       <c r="E448" s="1">
-        <f>CONVERT(D448,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F448" s="1">
@@ -11188,7 +11188,7 @@
         <v>98</v>
       </c>
       <c r="E449" s="1">
-        <f>CONVERT(D449,"F","C")</f>
+        <f t="shared" si="6"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F449" s="1">
@@ -11212,7 +11212,7 @@
         <v>98</v>
       </c>
       <c r="E450" s="1">
-        <f>CONVERT(D450,"F","C")</f>
+        <f t="shared" ref="E450:E513" si="7">CONVERT(D450,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F450" s="1">
@@ -11236,7 +11236,7 @@
         <v>98</v>
       </c>
       <c r="E451" s="1">
-        <f>CONVERT(D451,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F451" s="1">
@@ -11260,7 +11260,7 @@
         <v>98</v>
       </c>
       <c r="E452" s="1">
-        <f>CONVERT(D452,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F452" s="1">
@@ -11284,7 +11284,7 @@
         <v>98</v>
       </c>
       <c r="E453" s="1">
-        <f>CONVERT(D453,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F453" s="1">
@@ -11308,7 +11308,7 @@
         <v>98</v>
       </c>
       <c r="E454" s="1">
-        <f>CONVERT(D454,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F454" s="1">
@@ -11332,7 +11332,7 @@
         <v>98</v>
       </c>
       <c r="E455" s="1">
-        <f>CONVERT(D455,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F455" s="1">
@@ -11356,7 +11356,7 @@
         <v>98</v>
       </c>
       <c r="E456" s="1">
-        <f>CONVERT(D456,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F456" s="1">
@@ -11380,7 +11380,7 @@
         <v>98</v>
       </c>
       <c r="E457" s="1">
-        <f>CONVERT(D457,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F457" s="1">
@@ -11404,7 +11404,7 @@
         <v>98</v>
       </c>
       <c r="E458" s="1">
-        <f>CONVERT(D458,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F458" s="1">
@@ -11428,7 +11428,7 @@
         <v>98</v>
       </c>
       <c r="E459" s="1">
-        <f>CONVERT(D459,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F459" s="1">
@@ -11452,7 +11452,7 @@
         <v>102</v>
       </c>
       <c r="E460" s="1">
-        <f>CONVERT(D460,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F460" s="1">
@@ -11476,7 +11476,7 @@
         <v>98</v>
       </c>
       <c r="E461" s="1">
-        <f>CONVERT(D461,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F461" s="1">
@@ -11500,7 +11500,7 @@
         <v>98</v>
       </c>
       <c r="E462" s="1">
-        <f>CONVERT(D462,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F462" s="1">
@@ -11524,7 +11524,7 @@
         <v>98</v>
       </c>
       <c r="E463" s="1">
-        <f>CONVERT(D463,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F463" s="1">
@@ -11548,7 +11548,7 @@
         <v>98</v>
       </c>
       <c r="E464" s="1">
-        <f>CONVERT(D464,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F464" s="1">
@@ -11572,7 +11572,7 @@
         <v>98</v>
       </c>
       <c r="E465" s="1">
-        <f>CONVERT(D465,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F465" s="1">
@@ -11596,7 +11596,7 @@
         <v>98</v>
       </c>
       <c r="E466" s="1">
-        <f>CONVERT(D466,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F466" s="1">
@@ -11620,7 +11620,7 @@
         <v>98</v>
       </c>
       <c r="E467" s="1">
-        <f>CONVERT(D467,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F467" s="1">
@@ -11644,7 +11644,7 @@
         <v>98</v>
       </c>
       <c r="E468" s="1">
-        <f>CONVERT(D468,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F468" s="1">
@@ -11668,7 +11668,7 @@
         <v>98</v>
       </c>
       <c r="E469" s="1">
-        <f>CONVERT(D469,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F469" s="1">
@@ -11692,7 +11692,7 @@
         <v>98</v>
       </c>
       <c r="E470" s="1">
-        <f>CONVERT(D470,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F470" s="1">
@@ -11716,7 +11716,7 @@
         <v>101</v>
       </c>
       <c r="E471" s="1">
-        <f>CONVERT(D471,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F471" s="1">
@@ -11740,7 +11740,7 @@
         <v>100</v>
       </c>
       <c r="E472" s="1">
-        <f>CONVERT(D472,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F472" s="1">
@@ -11764,7 +11764,7 @@
         <v>98</v>
       </c>
       <c r="E473" s="1">
-        <f>CONVERT(D473,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F473" s="1">
@@ -11788,7 +11788,7 @@
         <v>102</v>
       </c>
       <c r="E474" s="1">
-        <f>CONVERT(D474,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F474" s="1">
@@ -11812,7 +11812,7 @@
         <v>98</v>
       </c>
       <c r="E475" s="1">
-        <f>CONVERT(D475,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F475" s="1">
@@ -11836,7 +11836,7 @@
         <v>101</v>
       </c>
       <c r="E476" s="1">
-        <f>CONVERT(D476,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F476" s="1">
@@ -11860,7 +11860,7 @@
         <v>98</v>
       </c>
       <c r="E477" s="1">
-        <f>CONVERT(D477,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F477" s="1">
@@ -11884,7 +11884,7 @@
         <v>98</v>
       </c>
       <c r="E478" s="1">
-        <f>CONVERT(D478,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F478" s="1">
@@ -11908,7 +11908,7 @@
         <v>98</v>
       </c>
       <c r="E479" s="1">
-        <f>CONVERT(D479,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F479" s="1">
@@ -11932,7 +11932,7 @@
         <v>98</v>
       </c>
       <c r="E480" s="1">
-        <f>CONVERT(D480,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F480" s="1">
@@ -11956,7 +11956,7 @@
         <v>98</v>
       </c>
       <c r="E481" s="1">
-        <f>CONVERT(D481,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F481" s="1">
@@ -11980,7 +11980,7 @@
         <v>98</v>
       </c>
       <c r="E482" s="1">
-        <f>CONVERT(D482,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F482" s="1">
@@ -12004,7 +12004,7 @@
         <v>98</v>
       </c>
       <c r="E483" s="1">
-        <f>CONVERT(D483,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F483" s="1">
@@ -12028,7 +12028,7 @@
         <v>98</v>
       </c>
       <c r="E484" s="1">
-        <f>CONVERT(D484,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F484" s="1">
@@ -12052,7 +12052,7 @@
         <v>98</v>
       </c>
       <c r="E485" s="1">
-        <f>CONVERT(D485,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F485" s="1">
@@ -12076,7 +12076,7 @@
         <v>98</v>
       </c>
       <c r="E486" s="1">
-        <f>CONVERT(D486,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F486" s="1">
@@ -12100,7 +12100,7 @@
         <v>98</v>
       </c>
       <c r="E487" s="1">
-        <f>CONVERT(D487,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F487" s="1">
@@ -12124,7 +12124,7 @@
         <v>101</v>
       </c>
       <c r="E488" s="1">
-        <f>CONVERT(D488,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F488" s="1">
@@ -12148,7 +12148,7 @@
         <v>98</v>
       </c>
       <c r="E489" s="1">
-        <f>CONVERT(D489,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F489" s="1">
@@ -12172,7 +12172,7 @@
         <v>98</v>
       </c>
       <c r="E490" s="1">
-        <f>CONVERT(D490,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F490" s="1">
@@ -12196,7 +12196,7 @@
         <v>98</v>
       </c>
       <c r="E491" s="1">
-        <f>CONVERT(D491,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F491" s="1">
@@ -12220,7 +12220,7 @@
         <v>98</v>
       </c>
       <c r="E492" s="1">
-        <f>CONVERT(D492,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F492" s="1">
@@ -12244,7 +12244,7 @@
         <v>98</v>
       </c>
       <c r="E493" s="1">
-        <f>CONVERT(D493,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F493" s="1">
@@ -12268,7 +12268,7 @@
         <v>98</v>
       </c>
       <c r="E494" s="1">
-        <f>CONVERT(D494,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F494" s="1">
@@ -12292,7 +12292,7 @@
         <v>102</v>
       </c>
       <c r="E495" s="1">
-        <f>CONVERT(D495,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F495" s="1">
@@ -12316,7 +12316,7 @@
         <v>98</v>
       </c>
       <c r="E496" s="1">
-        <f>CONVERT(D496,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F496" s="1">
@@ -12340,7 +12340,7 @@
         <v>98</v>
       </c>
       <c r="E497" s="1">
-        <f>CONVERT(D497,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F497" s="1">
@@ -12364,7 +12364,7 @@
         <v>98</v>
       </c>
       <c r="E498" s="1">
-        <f>CONVERT(D498,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F498" s="1">
@@ -12388,7 +12388,7 @@
         <v>98</v>
       </c>
       <c r="E499" s="1">
-        <f>CONVERT(D499,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F499" s="1">
@@ -12412,7 +12412,7 @@
         <v>98</v>
       </c>
       <c r="E500" s="1">
-        <f>CONVERT(D500,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F500" s="1">
@@ -12436,11 +12436,11 @@
         <v>98</v>
       </c>
       <c r="E501" s="1">
-        <f>CONVERT(D501,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F501" s="1">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G501" s="1" t="s">
         <v>7</v>
@@ -12460,7 +12460,7 @@
         <v>98</v>
       </c>
       <c r="E502" s="1">
-        <f>CONVERT(D502,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F502" s="1">
@@ -12484,7 +12484,7 @@
         <v>98</v>
       </c>
       <c r="E503" s="1">
-        <f>CONVERT(D503,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F503" s="1">
@@ -12508,7 +12508,7 @@
         <v>98</v>
       </c>
       <c r="E504" s="1">
-        <f>CONVERT(D504,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F504" s="1">
@@ -12532,7 +12532,7 @@
         <v>98</v>
       </c>
       <c r="E505" s="1">
-        <f>CONVERT(D505,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F505" s="1">
@@ -12556,7 +12556,7 @@
         <v>101</v>
       </c>
       <c r="E506" s="1">
-        <f>CONVERT(D506,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F506" s="1">
@@ -12580,7 +12580,7 @@
         <v>98</v>
       </c>
       <c r="E507" s="1">
-        <f>CONVERT(D507,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F507" s="1">
@@ -12604,7 +12604,7 @@
         <v>98</v>
       </c>
       <c r="E508" s="1">
-        <f>CONVERT(D508,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F508" s="1">
@@ -12628,7 +12628,7 @@
         <v>102</v>
       </c>
       <c r="E509" s="1">
-        <f>CONVERT(D509,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F509" s="1">
@@ -12652,7 +12652,7 @@
         <v>98</v>
       </c>
       <c r="E510" s="1">
-        <f>CONVERT(D510,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F510" s="1">
@@ -12676,7 +12676,7 @@
         <v>101</v>
       </c>
       <c r="E511" s="1">
-        <f>CONVERT(D511,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F511" s="1">
@@ -12700,7 +12700,7 @@
         <v>101</v>
       </c>
       <c r="E512" s="1">
-        <f>CONVERT(D512,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F512" s="1">
@@ -12724,7 +12724,7 @@
         <v>101</v>
       </c>
       <c r="E513" s="1">
-        <f>CONVERT(D513,"F","C")</f>
+        <f t="shared" si="7"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F513" s="1">
@@ -12748,7 +12748,7 @@
         <v>102</v>
       </c>
       <c r="E514" s="1">
-        <f>CONVERT(D514,"F","C")</f>
+        <f t="shared" ref="E514:E577" si="8">CONVERT(D514,"F","C")</f>
         <v>38.888888888888886</v>
       </c>
       <c r="F514" s="1">
@@ -12772,7 +12772,7 @@
         <v>101</v>
       </c>
       <c r="E515" s="1">
-        <f>CONVERT(D515,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F515" s="1">
@@ -12796,7 +12796,7 @@
         <v>98</v>
       </c>
       <c r="E516" s="1">
-        <f>CONVERT(D516,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F516" s="1">
@@ -12820,7 +12820,7 @@
         <v>98</v>
       </c>
       <c r="E517" s="1">
-        <f>CONVERT(D517,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F517" s="1">
@@ -12844,7 +12844,7 @@
         <v>101</v>
       </c>
       <c r="E518" s="1">
-        <f>CONVERT(D518,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F518" s="1">
@@ -12868,7 +12868,7 @@
         <v>98</v>
       </c>
       <c r="E519" s="1">
-        <f>CONVERT(D519,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F519" s="1">
@@ -12892,7 +12892,7 @@
         <v>98</v>
       </c>
       <c r="E520" s="1">
-        <f>CONVERT(D520,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F520" s="1">
@@ -12916,7 +12916,7 @@
         <v>98</v>
       </c>
       <c r="E521" s="1">
-        <f>CONVERT(D521,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F521" s="1">
@@ -12940,7 +12940,7 @@
         <v>98</v>
       </c>
       <c r="E522" s="1">
-        <f>CONVERT(D522,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F522" s="1">
@@ -12964,7 +12964,7 @@
         <v>98</v>
       </c>
       <c r="E523" s="1">
-        <f>CONVERT(D523,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F523" s="1">
@@ -12988,7 +12988,7 @@
         <v>98</v>
       </c>
       <c r="E524" s="1">
-        <f>CONVERT(D524,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F524" s="1">
@@ -13012,7 +13012,7 @@
         <v>102</v>
       </c>
       <c r="E525" s="1">
-        <f>CONVERT(D525,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F525" s="1">
@@ -13036,7 +13036,7 @@
         <v>98</v>
       </c>
       <c r="E526" s="1">
-        <f>CONVERT(D526,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F526" s="1">
@@ -13060,7 +13060,7 @@
         <v>98</v>
       </c>
       <c r="E527" s="1">
-        <f>CONVERT(D527,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F527" s="1">
@@ -13084,7 +13084,7 @@
         <v>98</v>
       </c>
       <c r="E528" s="1">
-        <f>CONVERT(D528,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F528" s="1">
@@ -13108,7 +13108,7 @@
         <v>98</v>
       </c>
       <c r="E529" s="1">
-        <f>CONVERT(D529,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F529" s="1">
@@ -13132,7 +13132,7 @@
         <v>98</v>
       </c>
       <c r="E530" s="1">
-        <f>CONVERT(D530,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F530" s="1">
@@ -13156,7 +13156,7 @@
         <v>98</v>
       </c>
       <c r="E531" s="1">
-        <f>CONVERT(D531,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F531" s="1">
@@ -13180,7 +13180,7 @@
         <v>98</v>
       </c>
       <c r="E532" s="1">
-        <f>CONVERT(D532,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F532" s="1">
@@ -13204,7 +13204,7 @@
         <v>98</v>
       </c>
       <c r="E533" s="1">
-        <f>CONVERT(D533,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F533" s="1">
@@ -13228,7 +13228,7 @@
         <v>98</v>
       </c>
       <c r="E534" s="1">
-        <f>CONVERT(D534,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F534" s="1">
@@ -13252,7 +13252,7 @@
         <v>98</v>
       </c>
       <c r="E535" s="1">
-        <f>CONVERT(D535,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F535" s="1">
@@ -13276,7 +13276,7 @@
         <v>101</v>
       </c>
       <c r="E536" s="1">
-        <f>CONVERT(D536,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F536" s="1">
@@ -13300,7 +13300,7 @@
         <v>100</v>
       </c>
       <c r="E537" s="1">
-        <f>CONVERT(D537,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F537" s="1">
@@ -13324,7 +13324,7 @@
         <v>98</v>
       </c>
       <c r="E538" s="1">
-        <f>CONVERT(D538,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F538" s="1">
@@ -13348,7 +13348,7 @@
         <v>98</v>
       </c>
       <c r="E539" s="1">
-        <f>CONVERT(D539,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F539" s="1">
@@ -13372,7 +13372,7 @@
         <v>98</v>
       </c>
       <c r="E540" s="1">
-        <f>CONVERT(D540,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F540" s="1">
@@ -13396,7 +13396,7 @@
         <v>98</v>
       </c>
       <c r="E541" s="1">
-        <f>CONVERT(D541,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F541" s="1">
@@ -13420,7 +13420,7 @@
         <v>98</v>
       </c>
       <c r="E542" s="1">
-        <f>CONVERT(D542,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F542" s="1">
@@ -13444,7 +13444,7 @@
         <v>98</v>
       </c>
       <c r="E543" s="1">
-        <f>CONVERT(D543,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F543" s="1">
@@ -13468,7 +13468,7 @@
         <v>98</v>
       </c>
       <c r="E544" s="1">
-        <f>CONVERT(D544,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F544" s="1">
@@ -13492,7 +13492,7 @@
         <v>102</v>
       </c>
       <c r="E545" s="1">
-        <f>CONVERT(D545,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F545" s="1">
@@ -13516,7 +13516,7 @@
         <v>98</v>
       </c>
       <c r="E546" s="1">
-        <f>CONVERT(D546,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F546" s="1">
@@ -13540,7 +13540,7 @@
         <v>98</v>
       </c>
       <c r="E547" s="1">
-        <f>CONVERT(D547,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F547" s="1">
@@ -13564,7 +13564,7 @@
         <v>98</v>
       </c>
       <c r="E548" s="1">
-        <f>CONVERT(D548,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F548" s="1">
@@ -13588,7 +13588,7 @@
         <v>98</v>
       </c>
       <c r="E549" s="1">
-        <f>CONVERT(D549,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F549" s="1">
@@ -13612,7 +13612,7 @@
         <v>98</v>
       </c>
       <c r="E550" s="1">
-        <f>CONVERT(D550,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F550" s="1">
@@ -13636,7 +13636,7 @@
         <v>98</v>
       </c>
       <c r="E551" s="1">
-        <f>CONVERT(D551,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F551" s="1">
@@ -13660,7 +13660,7 @@
         <v>98</v>
       </c>
       <c r="E552" s="1">
-        <f>CONVERT(D552,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F552" s="1">
@@ -13684,7 +13684,7 @@
         <v>98</v>
       </c>
       <c r="E553" s="1">
-        <f>CONVERT(D553,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F553" s="1">
@@ -13708,7 +13708,7 @@
         <v>102</v>
       </c>
       <c r="E554" s="1">
-        <f>CONVERT(D554,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F554" s="1">
@@ -13732,7 +13732,7 @@
         <v>98</v>
       </c>
       <c r="E555" s="1">
-        <f>CONVERT(D555,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F555" s="1">
@@ -13756,7 +13756,7 @@
         <v>98</v>
       </c>
       <c r="E556" s="1">
-        <f>CONVERT(D556,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F556" s="1">
@@ -13780,7 +13780,7 @@
         <v>98</v>
       </c>
       <c r="E557" s="1">
-        <f>CONVERT(D557,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F557" s="1">
@@ -13804,7 +13804,7 @@
         <v>98</v>
       </c>
       <c r="E558" s="1">
-        <f>CONVERT(D558,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F558" s="1">
@@ -13828,7 +13828,7 @@
         <v>98</v>
       </c>
       <c r="E559" s="1">
-        <f>CONVERT(D559,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F559" s="1">
@@ -13852,7 +13852,7 @@
         <v>98</v>
       </c>
       <c r="E560" s="1">
-        <f>CONVERT(D560,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F560" s="1">
@@ -13876,7 +13876,7 @@
         <v>98</v>
       </c>
       <c r="E561" s="1">
-        <f>CONVERT(D561,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F561" s="1">
@@ -13900,7 +13900,7 @@
         <v>98</v>
       </c>
       <c r="E562" s="1">
-        <f>CONVERT(D562,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F562" s="1">
@@ -13924,7 +13924,7 @@
         <v>101</v>
       </c>
       <c r="E563" s="1">
-        <f>CONVERT(D563,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F563" s="1">
@@ -13948,7 +13948,7 @@
         <v>98</v>
       </c>
       <c r="E564" s="1">
-        <f>CONVERT(D564,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F564" s="1">
@@ -13972,7 +13972,7 @@
         <v>103</v>
       </c>
       <c r="E565" s="1">
-        <f>CONVERT(D565,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F565" s="1">
@@ -13996,7 +13996,7 @@
         <v>101</v>
       </c>
       <c r="E566" s="1">
-        <f>CONVERT(D566,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F566" s="1">
@@ -14020,7 +14020,7 @@
         <v>98</v>
       </c>
       <c r="E567" s="1">
-        <f>CONVERT(D567,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F567" s="1">
@@ -14044,7 +14044,7 @@
         <v>98</v>
       </c>
       <c r="E568" s="1">
-        <f>CONVERT(D568,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F568" s="1">
@@ -14068,7 +14068,7 @@
         <v>98</v>
       </c>
       <c r="E569" s="1">
-        <f>CONVERT(D569,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F569" s="1">
@@ -14092,7 +14092,7 @@
         <v>98</v>
       </c>
       <c r="E570" s="1">
-        <f>CONVERT(D570,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F570" s="1">
@@ -14116,7 +14116,7 @@
         <v>98</v>
       </c>
       <c r="E571" s="1">
-        <f>CONVERT(D571,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F571" s="1">
@@ -14140,7 +14140,7 @@
         <v>98</v>
       </c>
       <c r="E572" s="1">
-        <f>CONVERT(D572,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F572" s="1">
@@ -14164,7 +14164,7 @@
         <v>102</v>
       </c>
       <c r="E573" s="1">
-        <f>CONVERT(D573,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F573" s="1">
@@ -14188,7 +14188,7 @@
         <v>98</v>
       </c>
       <c r="E574" s="1">
-        <f>CONVERT(D574,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F574" s="1">
@@ -14212,7 +14212,7 @@
         <v>98</v>
       </c>
       <c r="E575" s="1">
-        <f>CONVERT(D575,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F575" s="1">
@@ -14236,7 +14236,7 @@
         <v>98</v>
       </c>
       <c r="E576" s="1">
-        <f>CONVERT(D576,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F576" s="1">
@@ -14260,7 +14260,7 @@
         <v>98</v>
       </c>
       <c r="E577" s="1">
-        <f>CONVERT(D577,"F","C")</f>
+        <f t="shared" si="8"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F577" s="1">
@@ -14284,7 +14284,7 @@
         <v>98</v>
       </c>
       <c r="E578" s="1">
-        <f>CONVERT(D578,"F","C")</f>
+        <f t="shared" ref="E578:E641" si="9">CONVERT(D578,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F578" s="1">
@@ -14308,7 +14308,7 @@
         <v>98</v>
       </c>
       <c r="E579" s="1">
-        <f>CONVERT(D579,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F579" s="1">
@@ -14332,7 +14332,7 @@
         <v>98</v>
       </c>
       <c r="E580" s="1">
-        <f>CONVERT(D580,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F580" s="1">
@@ -14356,7 +14356,7 @@
         <v>98</v>
       </c>
       <c r="E581" s="1">
-        <f>CONVERT(D581,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F581" s="1">
@@ -14380,7 +14380,7 @@
         <v>98</v>
       </c>
       <c r="E582" s="1">
-        <f>CONVERT(D582,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F582" s="1">
@@ -14404,7 +14404,7 @@
         <v>98</v>
       </c>
       <c r="E583" s="1">
-        <f>CONVERT(D583,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F583" s="1">
@@ -14428,7 +14428,7 @@
         <v>98</v>
       </c>
       <c r="E584" s="1">
-        <f>CONVERT(D584,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F584" s="1">
@@ -14452,7 +14452,7 @@
         <v>98</v>
       </c>
       <c r="E585" s="1">
-        <f>CONVERT(D585,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F585" s="1">
@@ -14476,7 +14476,7 @@
         <v>98</v>
       </c>
       <c r="E586" s="1">
-        <f>CONVERT(D586,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F586" s="1">
@@ -14500,7 +14500,7 @@
         <v>98</v>
       </c>
       <c r="E587" s="1">
-        <f>CONVERT(D587,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F587" s="1">
@@ -14524,7 +14524,7 @@
         <v>98</v>
       </c>
       <c r="E588" s="1">
-        <f>CONVERT(D588,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F588" s="1">
@@ -14548,7 +14548,7 @@
         <v>98</v>
       </c>
       <c r="E589" s="1">
-        <f>CONVERT(D589,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F589" s="1">
@@ -14572,7 +14572,7 @@
         <v>102</v>
       </c>
       <c r="E590" s="1">
-        <f>CONVERT(D590,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F590" s="1">
@@ -14596,7 +14596,7 @@
         <v>98</v>
       </c>
       <c r="E591" s="1">
-        <f>CONVERT(D591,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F591" s="1">
@@ -14620,7 +14620,7 @@
         <v>98</v>
       </c>
       <c r="E592" s="1">
-        <f>CONVERT(D592,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F592" s="1">
@@ -14644,7 +14644,7 @@
         <v>98</v>
       </c>
       <c r="E593" s="1">
-        <f>CONVERT(D593,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F593" s="1">
@@ -14668,7 +14668,7 @@
         <v>98</v>
       </c>
       <c r="E594" s="1">
-        <f>CONVERT(D594,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F594" s="1">
@@ -14692,7 +14692,7 @@
         <v>98</v>
       </c>
       <c r="E595" s="1">
-        <f>CONVERT(D595,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F595" s="1">
@@ -14716,7 +14716,7 @@
         <v>98</v>
       </c>
       <c r="E596" s="1">
-        <f>CONVERT(D596,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F596" s="1">
@@ -14740,7 +14740,7 @@
         <v>98</v>
       </c>
       <c r="E597" s="1">
-        <f>CONVERT(D597,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F597" s="1">
@@ -14764,7 +14764,7 @@
         <v>98</v>
       </c>
       <c r="E598" s="1">
-        <f>CONVERT(D598,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F598" s="1">
@@ -14788,7 +14788,7 @@
         <v>102</v>
       </c>
       <c r="E599" s="1">
-        <f>CONVERT(D599,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F599" s="1">
@@ -14812,7 +14812,7 @@
         <v>98</v>
       </c>
       <c r="E600" s="1">
-        <f>CONVERT(D600,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F600" s="1">
@@ -14836,7 +14836,7 @@
         <v>98</v>
       </c>
       <c r="E601" s="1">
-        <f>CONVERT(D601,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F601" s="1">
@@ -14860,7 +14860,7 @@
         <v>98</v>
       </c>
       <c r="E602" s="1">
-        <f>CONVERT(D602,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F602" s="1">
@@ -14884,7 +14884,7 @@
         <v>98</v>
       </c>
       <c r="E603" s="1">
-        <f>CONVERT(D603,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F603" s="1">
@@ -14908,7 +14908,7 @@
         <v>98</v>
       </c>
       <c r="E604" s="1">
-        <f>CONVERT(D604,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F604" s="1">
@@ -14932,7 +14932,7 @@
         <v>98</v>
       </c>
       <c r="E605" s="1">
-        <f>CONVERT(D605,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F605" s="1">
@@ -14956,7 +14956,7 @@
         <v>98</v>
       </c>
       <c r="E606" s="1">
-        <f>CONVERT(D606,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F606" s="1">
@@ -14980,7 +14980,7 @@
         <v>98</v>
       </c>
       <c r="E607" s="1">
-        <f>CONVERT(D607,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F607" s="1">
@@ -15004,7 +15004,7 @@
         <v>98</v>
       </c>
       <c r="E608" s="1">
-        <f>CONVERT(D608,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F608" s="1">
@@ -15028,7 +15028,7 @@
         <v>98</v>
       </c>
       <c r="E609" s="1">
-        <f>CONVERT(D609,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F609" s="1">
@@ -15052,7 +15052,7 @@
         <v>98</v>
       </c>
       <c r="E610" s="1">
-        <f>CONVERT(D610,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F610" s="1">
@@ -15076,7 +15076,7 @@
         <v>98</v>
       </c>
       <c r="E611" s="1">
-        <f>CONVERT(D611,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F611" s="1">
@@ -15100,7 +15100,7 @@
         <v>101</v>
       </c>
       <c r="E612" s="1">
-        <f>CONVERT(D612,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F612" s="1">
@@ -15124,7 +15124,7 @@
         <v>98</v>
       </c>
       <c r="E613" s="1">
-        <f>CONVERT(D613,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F613" s="1">
@@ -15148,7 +15148,7 @@
         <v>103</v>
       </c>
       <c r="E614" s="1">
-        <f>CONVERT(D614,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F614" s="1">
@@ -15172,7 +15172,7 @@
         <v>101</v>
       </c>
       <c r="E615" s="1">
-        <f>CONVERT(D615,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F615" s="1">
@@ -15196,7 +15196,7 @@
         <v>98</v>
       </c>
       <c r="E616" s="1">
-        <f>CONVERT(D616,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F616" s="1">
@@ -15220,7 +15220,7 @@
         <v>98</v>
       </c>
       <c r="E617" s="1">
-        <f>CONVERT(D617,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F617" s="1">
@@ -15244,7 +15244,7 @@
         <v>98</v>
       </c>
       <c r="E618" s="1">
-        <f>CONVERT(D618,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F618" s="1">
@@ -15268,7 +15268,7 @@
         <v>98</v>
       </c>
       <c r="E619" s="1">
-        <f>CONVERT(D619,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F619" s="1">
@@ -15292,7 +15292,7 @@
         <v>98</v>
       </c>
       <c r="E620" s="1">
-        <f>CONVERT(D620,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F620" s="1">
@@ -15316,7 +15316,7 @@
         <v>98</v>
       </c>
       <c r="E621" s="1">
-        <f>CONVERT(D621,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F621" s="1">
@@ -15340,7 +15340,7 @@
         <v>101</v>
       </c>
       <c r="E622" s="1">
-        <f>CONVERT(D622,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F622" s="1">
@@ -15364,7 +15364,7 @@
         <v>98</v>
       </c>
       <c r="E623" s="1">
-        <f>CONVERT(D623,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F623" s="1">
@@ -15388,7 +15388,7 @@
         <v>98</v>
       </c>
       <c r="E624" s="1">
-        <f>CONVERT(D624,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F624" s="1">
@@ -15412,7 +15412,7 @@
         <v>98</v>
       </c>
       <c r="E625" s="1">
-        <f>CONVERT(D625,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F625" s="1">
@@ -15436,7 +15436,7 @@
         <v>98</v>
       </c>
       <c r="E626" s="1">
-        <f>CONVERT(D626,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F626" s="1">
@@ -15460,7 +15460,7 @@
         <v>98</v>
       </c>
       <c r="E627" s="1">
-        <f>CONVERT(D627,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F627" s="1">
@@ -15484,7 +15484,7 @@
         <v>98</v>
       </c>
       <c r="E628" s="1">
-        <f>CONVERT(D628,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F628" s="1">
@@ -15508,7 +15508,7 @@
         <v>98</v>
       </c>
       <c r="E629" s="1">
-        <f>CONVERT(D629,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F629" s="1">
@@ -15532,7 +15532,7 @@
         <v>98</v>
       </c>
       <c r="E630" s="1">
-        <f>CONVERT(D630,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F630" s="1">
@@ -15556,7 +15556,7 @@
         <v>98</v>
       </c>
       <c r="E631" s="1">
-        <f>CONVERT(D631,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F631" s="1">
@@ -15580,7 +15580,7 @@
         <v>98</v>
       </c>
       <c r="E632" s="1">
-        <f>CONVERT(D632,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F632" s="1">
@@ -15604,7 +15604,7 @@
         <v>98</v>
       </c>
       <c r="E633" s="1">
-        <f>CONVERT(D633,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F633" s="1">
@@ -15628,7 +15628,7 @@
         <v>98</v>
       </c>
       <c r="E634" s="1">
-        <f>CONVERT(D634,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F634" s="1">
@@ -15652,7 +15652,7 @@
         <v>98</v>
       </c>
       <c r="E635" s="1">
-        <f>CONVERT(D635,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F635" s="1">
@@ -15676,7 +15676,7 @@
         <v>98</v>
       </c>
       <c r="E636" s="1">
-        <f>CONVERT(D636,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F636" s="1">
@@ -15700,7 +15700,7 @@
         <v>101</v>
       </c>
       <c r="E637" s="1">
-        <f>CONVERT(D637,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F637" s="1">
@@ -15724,7 +15724,7 @@
         <v>98</v>
       </c>
       <c r="E638" s="1">
-        <f>CONVERT(D638,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F638" s="1">
@@ -15748,7 +15748,7 @@
         <v>98</v>
       </c>
       <c r="E639" s="1">
-        <f>CONVERT(D639,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F639" s="1">
@@ -15772,7 +15772,7 @@
         <v>100</v>
       </c>
       <c r="E640" s="1">
-        <f>CONVERT(D640,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F640" s="1">
@@ -15796,7 +15796,7 @@
         <v>9</v>
       </c>
       <c r="E641" s="1" t="e">
-        <f>CONVERT(D641,"F","C")</f>
+        <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
       <c r="F641" s="1">
@@ -15820,7 +15820,7 @@
         <v>99</v>
       </c>
       <c r="E642" s="1">
-        <f>CONVERT(D642,"F","C")</f>
+        <f t="shared" ref="E642:E705" si="10">CONVERT(D642,"F","C")</f>
         <v>37.222222222222221</v>
       </c>
       <c r="F642" s="1">
@@ -15844,7 +15844,7 @@
         <v>101</v>
       </c>
       <c r="E643" s="1">
-        <f>CONVERT(D643,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F643" s="1">
@@ -15868,7 +15868,7 @@
         <v>98</v>
       </c>
       <c r="E644" s="1">
-        <f>CONVERT(D644,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F644" s="1">
@@ -15892,7 +15892,7 @@
         <v>98</v>
       </c>
       <c r="E645" s="1">
-        <f>CONVERT(D645,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F645" s="1">
@@ -15916,7 +15916,7 @@
         <v>10</v>
       </c>
       <c r="E646" s="1" t="e">
-        <f>CONVERT(D646,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F646" s="1">
@@ -15940,7 +15940,7 @@
         <v>98</v>
       </c>
       <c r="E647" s="1">
-        <f>CONVERT(D647,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F647" s="1">
@@ -15964,7 +15964,7 @@
         <v>98</v>
       </c>
       <c r="E648" s="1">
-        <f>CONVERT(D648,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F648" s="1">
@@ -15988,7 +15988,7 @@
         <v>98</v>
       </c>
       <c r="E649" s="1">
-        <f>CONVERT(D649,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F649" s="1">
@@ -16012,7 +16012,7 @@
         <v>102</v>
       </c>
       <c r="E650" s="1">
-        <f>CONVERT(D650,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F650" s="1">
@@ -16036,7 +16036,7 @@
         <v>100</v>
       </c>
       <c r="E651" s="1">
-        <f>CONVERT(D651,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F651" s="1">
@@ -16060,7 +16060,7 @@
         <v>98</v>
       </c>
       <c r="E652" s="1">
-        <f>CONVERT(D652,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F652" s="1">
@@ -16084,7 +16084,7 @@
         <v>98</v>
       </c>
       <c r="E653" s="1">
-        <f>CONVERT(D653,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F653" s="1">
@@ -16108,7 +16108,7 @@
         <v>98</v>
       </c>
       <c r="E654" s="1">
-        <f>CONVERT(D654,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F654" s="1">
@@ -16132,7 +16132,7 @@
         <v>98</v>
       </c>
       <c r="E655" s="1">
-        <f>CONVERT(D655,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F655" s="1">
@@ -16156,7 +16156,7 @@
         <v>98</v>
       </c>
       <c r="E656" s="1">
-        <f>CONVERT(D656,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F656" s="1">
@@ -16180,7 +16180,7 @@
         <v>98</v>
       </c>
       <c r="E657" s="1">
-        <f>CONVERT(D657,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F657" s="1">
@@ -16204,7 +16204,7 @@
         <v>99</v>
       </c>
       <c r="E658" s="1">
-        <f>CONVERT(D658,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F658" s="1">
@@ -16228,7 +16228,7 @@
         <v>98</v>
       </c>
       <c r="E659" s="1">
-        <f>CONVERT(D659,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F659" s="1">
@@ -16252,7 +16252,7 @@
         <v>99</v>
       </c>
       <c r="E660" s="1">
-        <f>CONVERT(D660,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F660" s="1">
@@ -16276,7 +16276,7 @@
         <v>98</v>
       </c>
       <c r="E661" s="1">
-        <f>CONVERT(D661,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F661" s="1">
@@ -16300,7 +16300,7 @@
         <v>101</v>
       </c>
       <c r="E662" s="1">
-        <f>CONVERT(D662,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F662" s="1">
@@ -16324,7 +16324,7 @@
         <v>98</v>
       </c>
       <c r="E663" s="1">
-        <f>CONVERT(D663,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F663" s="1">
@@ -16348,7 +16348,7 @@
         <v>98</v>
       </c>
       <c r="E664" s="1">
-        <f>CONVERT(D664,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F664" s="1">
@@ -16372,7 +16372,7 @@
         <v>98</v>
       </c>
       <c r="E665" s="1">
-        <f>CONVERT(D665,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F665" s="1">
@@ -16396,7 +16396,7 @@
         <v>98</v>
       </c>
       <c r="E666" s="1">
-        <f>CONVERT(D666,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F666" s="1">
@@ -16420,7 +16420,7 @@
         <v>98</v>
       </c>
       <c r="E667" s="1">
-        <f>CONVERT(D667,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F667" s="1">
@@ -16444,7 +16444,7 @@
         <v>98</v>
       </c>
       <c r="E668" s="1">
-        <f>CONVERT(D668,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F668" s="1">
@@ -16468,7 +16468,7 @@
         <v>98</v>
       </c>
       <c r="E669" s="1">
-        <f>CONVERT(D669,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F669" s="1">
@@ -16492,7 +16492,7 @@
         <v>99</v>
       </c>
       <c r="E670" s="1">
-        <f>CONVERT(D670,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F670" s="1">
@@ -16516,7 +16516,7 @@
         <v>99</v>
       </c>
       <c r="E671" s="1">
-        <f>CONVERT(D671,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F671" s="1">
@@ -16540,7 +16540,7 @@
         <v>99</v>
       </c>
       <c r="E672" s="1">
-        <f>CONVERT(D672,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F672" s="1">
@@ -16564,7 +16564,7 @@
         <v>99</v>
       </c>
       <c r="E673" s="1">
-        <f>CONVERT(D673,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F673" s="1">
@@ -16588,7 +16588,7 @@
         <v>99</v>
       </c>
       <c r="E674" s="1">
-        <f>CONVERT(D674,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F674" s="1">
@@ -16612,7 +16612,7 @@
         <v>98</v>
       </c>
       <c r="E675" s="1">
-        <f>CONVERT(D675,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F675" s="1">
@@ -16636,7 +16636,7 @@
         <v>98</v>
       </c>
       <c r="E676" s="1">
-        <f>CONVERT(D676,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F676" s="1">
@@ -16660,7 +16660,7 @@
         <v>98</v>
       </c>
       <c r="E677" s="1">
-        <f>CONVERT(D677,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F677" s="1">
@@ -16684,7 +16684,7 @@
         <v>100</v>
       </c>
       <c r="E678" s="1">
-        <f>CONVERT(D678,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F678" s="1">
@@ -16708,7 +16708,7 @@
         <v>98</v>
       </c>
       <c r="E679" s="1">
-        <f>CONVERT(D679,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F679" s="1">
@@ -16732,7 +16732,7 @@
         <v>98</v>
       </c>
       <c r="E680" s="1">
-        <f>CONVERT(D680,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F680" s="1">
@@ -16756,7 +16756,7 @@
         <v>102</v>
       </c>
       <c r="E681" s="1">
-        <f>CONVERT(D681,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F681" s="1">
@@ -16780,7 +16780,7 @@
         <v>98</v>
       </c>
       <c r="E682" s="1">
-        <f>CONVERT(D682,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F682" s="1">
@@ -16804,7 +16804,7 @@
         <v>98</v>
       </c>
       <c r="E683" s="1">
-        <f>CONVERT(D683,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F683" s="1">
@@ -16828,7 +16828,7 @@
         <v>98</v>
       </c>
       <c r="E684" s="1">
-        <f>CONVERT(D684,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F684" s="1">
@@ -16852,7 +16852,7 @@
         <v>98</v>
       </c>
       <c r="E685" s="1">
-        <f>CONVERT(D685,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F685" s="1">
@@ -16876,7 +16876,7 @@
         <v>98</v>
       </c>
       <c r="E686" s="1">
-        <f>CONVERT(D686,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F686" s="1">
@@ -16900,7 +16900,7 @@
         <v>101</v>
       </c>
       <c r="E687" s="1">
-        <f>CONVERT(D687,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F687" s="1">
@@ -16924,7 +16924,7 @@
         <v>98</v>
       </c>
       <c r="E688" s="1">
-        <f>CONVERT(D688,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F688" s="1">
@@ -16948,7 +16948,7 @@
         <v>101</v>
       </c>
       <c r="E689" s="1">
-        <f>CONVERT(D689,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F689" s="1">
@@ -16972,7 +16972,7 @@
         <v>98</v>
       </c>
       <c r="E690" s="1">
-        <f>CONVERT(D690,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F690" s="1">
@@ -16996,7 +16996,7 @@
         <v>98</v>
       </c>
       <c r="E691" s="1">
-        <f>CONVERT(D691,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F691" s="1">
@@ -17020,7 +17020,7 @@
         <v>98</v>
       </c>
       <c r="E692" s="1">
-        <f>CONVERT(D692,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F692" s="1">
@@ -17044,7 +17044,7 @@
         <v>98</v>
       </c>
       <c r="E693" s="1">
-        <f>CONVERT(D693,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F693" s="1">
@@ -17068,7 +17068,7 @@
         <v>98</v>
       </c>
       <c r="E694" s="1">
-        <f>CONVERT(D694,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F694" s="1">
@@ -17092,7 +17092,7 @@
         <v>9</v>
       </c>
       <c r="E695" s="1" t="e">
-        <f>CONVERT(D695,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>#VALUE!</v>
       </c>
       <c r="F695" s="1">
@@ -17116,7 +17116,7 @@
         <v>98</v>
       </c>
       <c r="E696" s="1">
-        <f>CONVERT(D696,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F696" s="1">
@@ -17140,7 +17140,7 @@
         <v>98</v>
       </c>
       <c r="E697" s="1">
-        <f>CONVERT(D697,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F697" s="1">
@@ -17164,7 +17164,7 @@
         <v>98</v>
       </c>
       <c r="E698" s="1">
-        <f>CONVERT(D698,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F698" s="1">
@@ -17188,7 +17188,7 @@
         <v>98</v>
       </c>
       <c r="E699" s="1">
-        <f>CONVERT(D699,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F699" s="1">
@@ -17212,7 +17212,7 @@
         <v>98</v>
       </c>
       <c r="E700" s="1">
-        <f>CONVERT(D700,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F700" s="1">
@@ -17236,7 +17236,7 @@
         <v>98</v>
       </c>
       <c r="E701" s="1">
-        <f>CONVERT(D701,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F701" s="1">
@@ -17260,7 +17260,7 @@
         <v>99</v>
       </c>
       <c r="E702" s="1">
-        <f>CONVERT(D702,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F702" s="1">
@@ -17284,7 +17284,7 @@
         <v>98</v>
       </c>
       <c r="E703" s="1">
-        <f>CONVERT(D703,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F703" s="1">
@@ -17308,7 +17308,7 @@
         <v>98</v>
       </c>
       <c r="E704" s="1">
-        <f>CONVERT(D704,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F704" s="1">
@@ -17332,7 +17332,7 @@
         <v>98</v>
       </c>
       <c r="E705" s="1">
-        <f>CONVERT(D705,"F","C")</f>
+        <f t="shared" si="10"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F705" s="1">
@@ -17356,7 +17356,7 @@
         <v>98</v>
       </c>
       <c r="E706" s="1">
-        <f>CONVERT(D706,"F","C")</f>
+        <f t="shared" ref="E706:E769" si="11">CONVERT(D706,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F706" s="1">
@@ -17380,7 +17380,7 @@
         <v>98</v>
       </c>
       <c r="E707" s="1">
-        <f>CONVERT(D707,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F707" s="1">
@@ -17404,7 +17404,7 @@
         <v>98</v>
       </c>
       <c r="E708" s="1">
-        <f>CONVERT(D708,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F708" s="1">
@@ -17428,7 +17428,7 @@
         <v>98</v>
       </c>
       <c r="E709" s="1">
-        <f>CONVERT(D709,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F709" s="1">
@@ -17452,7 +17452,7 @@
         <v>98</v>
       </c>
       <c r="E710" s="1">
-        <f>CONVERT(D710,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F710" s="1">
@@ -17476,7 +17476,7 @@
         <v>100</v>
       </c>
       <c r="E711" s="1">
-        <f>CONVERT(D711,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F711" s="1">
@@ -17500,7 +17500,7 @@
         <v>98</v>
       </c>
       <c r="E712" s="1">
-        <f>CONVERT(D712,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F712" s="1">
@@ -17524,7 +17524,7 @@
         <v>101</v>
       </c>
       <c r="E713" s="1">
-        <f>CONVERT(D713,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F713" s="1">
@@ -17548,7 +17548,7 @@
         <v>102</v>
       </c>
       <c r="E714" s="1">
-        <f>CONVERT(D714,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F714" s="1">
@@ -17572,7 +17572,7 @@
         <v>101</v>
       </c>
       <c r="E715" s="1">
-        <f>CONVERT(D715,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F715" s="1">
@@ -17596,7 +17596,7 @@
         <v>101</v>
       </c>
       <c r="E716" s="1">
-        <f>CONVERT(D716,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F716" s="1">
@@ -17620,7 +17620,7 @@
         <v>101</v>
       </c>
       <c r="E717" s="1">
-        <f>CONVERT(D717,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F717" s="1">
@@ -17644,7 +17644,7 @@
         <v>102</v>
       </c>
       <c r="E718" s="1">
-        <f>CONVERT(D718,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F718" s="1">
@@ -17668,7 +17668,7 @@
         <v>101</v>
       </c>
       <c r="E719" s="1">
-        <f>CONVERT(D719,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F719" s="1">
@@ -17692,7 +17692,7 @@
         <v>98</v>
       </c>
       <c r="E720" s="1">
-        <f>CONVERT(D720,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F720" s="1">
@@ -17716,7 +17716,7 @@
         <v>98</v>
       </c>
       <c r="E721" s="1">
-        <f>CONVERT(D721,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F721" s="1">
@@ -17740,7 +17740,7 @@
         <v>98</v>
       </c>
       <c r="E722" s="1">
-        <f>CONVERT(D722,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F722" s="1">
@@ -17764,7 +17764,7 @@
         <v>101</v>
       </c>
       <c r="E723" s="1">
-        <f>CONVERT(D723,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F723" s="1">
@@ -17788,7 +17788,7 @@
         <v>98</v>
       </c>
       <c r="E724" s="1">
-        <f>CONVERT(D724,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F724" s="1">
@@ -17812,7 +17812,7 @@
         <v>98</v>
       </c>
       <c r="E725" s="1">
-        <f>CONVERT(D725,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F725" s="1">
@@ -17836,7 +17836,7 @@
         <v>98</v>
       </c>
       <c r="E726" s="1">
-        <f>CONVERT(D726,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F726" s="1">
@@ -17860,7 +17860,7 @@
         <v>98</v>
       </c>
       <c r="E727" s="1">
-        <f>CONVERT(D727,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F727" s="1">
@@ -17884,7 +17884,7 @@
         <v>102</v>
       </c>
       <c r="E728" s="1">
-        <f>CONVERT(D728,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F728" s="1">
@@ -17908,7 +17908,7 @@
         <v>98</v>
       </c>
       <c r="E729" s="1">
-        <f>CONVERT(D729,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F729" s="1">
@@ -17932,7 +17932,7 @@
         <v>100</v>
       </c>
       <c r="E730" s="1">
-        <f>CONVERT(D730,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F730" s="1">
@@ -17956,7 +17956,7 @@
         <v>98</v>
       </c>
       <c r="E731" s="1">
-        <f>CONVERT(D731,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F731" s="1">
@@ -17980,7 +17980,7 @@
         <v>100</v>
       </c>
       <c r="E732" s="1">
-        <f>CONVERT(D732,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F732" s="1">
@@ -18004,7 +18004,7 @@
         <v>98</v>
       </c>
       <c r="E733" s="1">
-        <f>CONVERT(D733,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F733" s="1">
@@ -18028,7 +18028,7 @@
         <v>101</v>
       </c>
       <c r="E734" s="1">
-        <f>CONVERT(D734,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F734" s="1">
@@ -18052,7 +18052,7 @@
         <v>102</v>
       </c>
       <c r="E735" s="1">
-        <f>CONVERT(D735,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F735" s="1">
@@ -18076,7 +18076,7 @@
         <v>101</v>
       </c>
       <c r="E736" s="1">
-        <f>CONVERT(D736,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F736" s="1">
@@ -18100,7 +18100,7 @@
         <v>101</v>
       </c>
       <c r="E737" s="1">
-        <f>CONVERT(D737,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F737" s="1">
@@ -18124,7 +18124,7 @@
         <v>101</v>
       </c>
       <c r="E738" s="1">
-        <f>CONVERT(D738,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F738" s="1">
@@ -18148,7 +18148,7 @@
         <v>102</v>
       </c>
       <c r="E739" s="1">
-        <f>CONVERT(D739,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F739" s="1">
@@ -18172,7 +18172,7 @@
         <v>101</v>
       </c>
       <c r="E740" s="1">
-        <f>CONVERT(D740,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F740" s="1">
@@ -18196,7 +18196,7 @@
         <v>98</v>
       </c>
       <c r="E741" s="1">
-        <f>CONVERT(D741,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F741" s="1">
@@ -18220,7 +18220,7 @@
         <v>98</v>
       </c>
       <c r="E742" s="1">
-        <f>CONVERT(D742,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F742" s="1">
@@ -18244,7 +18244,7 @@
         <v>98</v>
       </c>
       <c r="E743" s="1">
-        <f>CONVERT(D743,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F743" s="1">
@@ -18268,7 +18268,7 @@
         <v>101</v>
       </c>
       <c r="E744" s="1">
-        <f>CONVERT(D744,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F744" s="1">
@@ -18292,7 +18292,7 @@
         <v>98</v>
       </c>
       <c r="E745" s="1">
-        <f>CONVERT(D745,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F745" s="1">
@@ -18316,7 +18316,7 @@
         <v>98</v>
       </c>
       <c r="E746" s="1">
-        <f>CONVERT(D746,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F746" s="1">
@@ -18340,7 +18340,7 @@
         <v>98</v>
       </c>
       <c r="E747" s="1">
-        <f>CONVERT(D747,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F747" s="1">
@@ -18364,7 +18364,7 @@
         <v>98</v>
       </c>
       <c r="E748" s="1">
-        <f>CONVERT(D748,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F748" s="1">
@@ -18388,7 +18388,7 @@
         <v>102</v>
       </c>
       <c r="E749" s="1">
-        <f>CONVERT(D749,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F749" s="1">
@@ -18412,7 +18412,7 @@
         <v>98</v>
       </c>
       <c r="E750" s="1">
-        <f>CONVERT(D750,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F750" s="1">
@@ -18436,7 +18436,7 @@
         <v>100</v>
       </c>
       <c r="E751" s="1">
-        <f>CONVERT(D751,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F751" s="1">
@@ -18460,7 +18460,7 @@
         <v>101</v>
       </c>
       <c r="E752" s="1">
-        <f>CONVERT(D752,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F752" s="1">
@@ -18484,7 +18484,7 @@
         <v>101</v>
       </c>
       <c r="E753" s="1">
-        <f>CONVERT(D753,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F753" s="1">
@@ -18508,7 +18508,7 @@
         <v>98</v>
       </c>
       <c r="E754" s="1">
-        <f>CONVERT(D754,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F754" s="1">
@@ -18532,7 +18532,7 @@
         <v>98</v>
       </c>
       <c r="E755" s="1">
-        <f>CONVERT(D755,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F755" s="1">
@@ -18556,7 +18556,7 @@
         <v>98</v>
       </c>
       <c r="E756" s="1">
-        <f>CONVERT(D756,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F756" s="1">
@@ -18580,7 +18580,7 @@
         <v>98</v>
       </c>
       <c r="E757" s="1">
-        <f>CONVERT(D757,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F757" s="1">
@@ -18604,7 +18604,7 @@
         <v>98</v>
       </c>
       <c r="E758" s="1">
-        <f>CONVERT(D758,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F758" s="1">
@@ -18628,7 +18628,7 @@
         <v>98</v>
       </c>
       <c r="E759" s="1">
-        <f>CONVERT(D759,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F759" s="1">
@@ -18652,7 +18652,7 @@
         <v>98</v>
       </c>
       <c r="E760" s="1">
-        <f>CONVERT(D760,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F760" s="1">
@@ -18676,7 +18676,7 @@
         <v>98</v>
       </c>
       <c r="E761" s="1">
-        <f>CONVERT(D761,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F761" s="1">
@@ -18700,7 +18700,7 @@
         <v>98</v>
       </c>
       <c r="E762" s="1">
-        <f>CONVERT(D762,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F762" s="1">
@@ -18724,7 +18724,7 @@
         <v>98</v>
       </c>
       <c r="E763" s="1">
-        <f>CONVERT(D763,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F763" s="1">
@@ -18748,7 +18748,7 @@
         <v>98</v>
       </c>
       <c r="E764" s="1">
-        <f>CONVERT(D764,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F764" s="1">
@@ -18772,7 +18772,7 @@
         <v>98</v>
       </c>
       <c r="E765" s="1">
-        <f>CONVERT(D765,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F765" s="1">
@@ -18796,7 +18796,7 @@
         <v>98</v>
       </c>
       <c r="E766" s="1">
-        <f>CONVERT(D766,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F766" s="1">
@@ -18820,7 +18820,7 @@
         <v>98</v>
       </c>
       <c r="E767" s="1">
-        <f>CONVERT(D767,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F767" s="1">
@@ -18844,7 +18844,7 @@
         <v>98</v>
       </c>
       <c r="E768" s="1">
-        <f>CONVERT(D768,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F768" s="1">
@@ -18868,7 +18868,7 @@
         <v>98</v>
       </c>
       <c r="E769" s="1">
-        <f>CONVERT(D769,"F","C")</f>
+        <f t="shared" si="11"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F769" s="1">
@@ -18892,7 +18892,7 @@
         <v>98</v>
       </c>
       <c r="E770" s="1">
-        <f>CONVERT(D770,"F","C")</f>
+        <f t="shared" ref="E770:E833" si="12">CONVERT(D770,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F770" s="1">
@@ -18916,7 +18916,7 @@
         <v>98</v>
       </c>
       <c r="E771" s="1">
-        <f>CONVERT(D771,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F771" s="1">
@@ -18940,7 +18940,7 @@
         <v>98</v>
       </c>
       <c r="E772" s="1">
-        <f>CONVERT(D772,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F772" s="1">
@@ -18964,7 +18964,7 @@
         <v>98</v>
       </c>
       <c r="E773" s="1">
-        <f>CONVERT(D773,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F773" s="1">
@@ -18988,7 +18988,7 @@
         <v>98</v>
       </c>
       <c r="E774" s="1">
-        <f>CONVERT(D774,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F774" s="1">
@@ -19012,7 +19012,7 @@
         <v>101</v>
       </c>
       <c r="E775" s="1">
-        <f>CONVERT(D775,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F775" s="1">
@@ -19036,7 +19036,7 @@
         <v>98</v>
       </c>
       <c r="E776" s="1">
-        <f>CONVERT(D776,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F776" s="1">
@@ -19060,7 +19060,7 @@
         <v>101</v>
       </c>
       <c r="E777" s="1">
-        <f>CONVERT(D777,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F777" s="1">
@@ -19084,7 +19084,7 @@
         <v>98</v>
       </c>
       <c r="E778" s="1">
-        <f>CONVERT(D778,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F778" s="1">
@@ -19108,7 +19108,7 @@
         <v>98</v>
       </c>
       <c r="E779" s="1">
-        <f>CONVERT(D779,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F779" s="1">
@@ -19132,7 +19132,7 @@
         <v>98</v>
       </c>
       <c r="E780" s="1">
-        <f>CONVERT(D780,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F780" s="1">
@@ -19156,7 +19156,7 @@
         <v>98</v>
       </c>
       <c r="E781" s="1">
-        <f>CONVERT(D781,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F781" s="1">
@@ -19180,7 +19180,7 @@
         <v>98</v>
       </c>
       <c r="E782" s="1">
-        <f>CONVERT(D782,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F782" s="1">
@@ -19204,7 +19204,7 @@
         <v>98</v>
       </c>
       <c r="E783" s="1">
-        <f>CONVERT(D783,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F783" s="1">
@@ -19228,7 +19228,7 @@
         <v>98</v>
       </c>
       <c r="E784" s="1">
-        <f>CONVERT(D784,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F784" s="1">
@@ -19252,7 +19252,7 @@
         <v>98</v>
       </c>
       <c r="E785" s="1">
-        <f>CONVERT(D785,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F785" s="1">
@@ -19276,7 +19276,7 @@
         <v>98</v>
       </c>
       <c r="E786" s="1">
-        <f>CONVERT(D786,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F786" s="1">
@@ -19300,7 +19300,7 @@
         <v>98</v>
       </c>
       <c r="E787" s="1">
-        <f>CONVERT(D787,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F787" s="1">
@@ -19324,7 +19324,7 @@
         <v>98</v>
       </c>
       <c r="E788" s="1">
-        <f>CONVERT(D788,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F788" s="1">
@@ -19348,7 +19348,7 @@
         <v>102</v>
       </c>
       <c r="E789" s="1">
-        <f>CONVERT(D789,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F789" s="1">
@@ -19372,7 +19372,7 @@
         <v>102</v>
       </c>
       <c r="E790" s="1">
-        <f>CONVERT(D790,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F790" s="1">
@@ -19396,7 +19396,7 @@
         <v>101</v>
       </c>
       <c r="E791" s="1">
-        <f>CONVERT(D791,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F791" s="1">
@@ -19420,7 +19420,7 @@
         <v>98</v>
       </c>
       <c r="E792" s="1">
-        <f>CONVERT(D792,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F792" s="1">
@@ -19444,7 +19444,7 @@
         <v>98</v>
       </c>
       <c r="E793" s="1">
-        <f>CONVERT(D793,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F793" s="1">
@@ -19468,7 +19468,7 @@
         <v>98</v>
       </c>
       <c r="E794" s="1">
-        <f>CONVERT(D794,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F794" s="1">
@@ -19492,7 +19492,7 @@
         <v>98</v>
       </c>
       <c r="E795" s="1">
-        <f>CONVERT(D795,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F795" s="1">
@@ -19516,7 +19516,7 @@
         <v>98</v>
       </c>
       <c r="E796" s="1">
-        <f>CONVERT(D796,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F796" s="1">
@@ -19540,7 +19540,7 @@
         <v>98</v>
       </c>
       <c r="E797" s="1">
-        <f>CONVERT(D797,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F797" s="1">
@@ -19564,7 +19564,7 @@
         <v>98</v>
       </c>
       <c r="E798" s="1">
-        <f>CONVERT(D798,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F798" s="1">
@@ -19588,7 +19588,7 @@
         <v>98</v>
       </c>
       <c r="E799" s="1">
-        <f>CONVERT(D799,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F799" s="1">
@@ -19612,7 +19612,7 @@
         <v>98</v>
       </c>
       <c r="E800" s="1">
-        <f>CONVERT(D800,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F800" s="1">
@@ -19636,7 +19636,7 @@
         <v>98</v>
       </c>
       <c r="E801" s="1">
-        <f>CONVERT(D801,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F801" s="1">
@@ -19660,7 +19660,7 @@
         <v>98</v>
       </c>
       <c r="E802" s="1">
-        <f>CONVERT(D802,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F802" s="1">
@@ -19684,7 +19684,7 @@
         <v>98</v>
       </c>
       <c r="E803" s="1">
-        <f>CONVERT(D803,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F803" s="1">
@@ -19708,7 +19708,7 @@
         <v>98</v>
       </c>
       <c r="E804" s="1">
-        <f>CONVERT(D804,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F804" s="1">
@@ -19732,7 +19732,7 @@
         <v>98</v>
       </c>
       <c r="E805" s="1">
-        <f>CONVERT(D805,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F805" s="1">
@@ -19756,7 +19756,7 @@
         <v>100</v>
       </c>
       <c r="E806" s="1">
-        <f>CONVERT(D806,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F806" s="1">
@@ -19780,7 +19780,7 @@
         <v>98</v>
       </c>
       <c r="E807" s="1">
-        <f>CONVERT(D807,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F807" s="1">
@@ -19804,7 +19804,7 @@
         <v>98</v>
       </c>
       <c r="E808" s="1">
-        <f>CONVERT(D808,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F808" s="1">
@@ -19828,7 +19828,7 @@
         <v>98</v>
       </c>
       <c r="E809" s="1">
-        <f>CONVERT(D809,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F809" s="1">
@@ -19852,7 +19852,7 @@
         <v>98</v>
       </c>
       <c r="E810" s="1">
-        <f>CONVERT(D810,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F810" s="1">
@@ -19876,7 +19876,7 @@
         <v>98</v>
       </c>
       <c r="E811" s="1">
-        <f>CONVERT(D811,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F811" s="1">
@@ -19900,7 +19900,7 @@
         <v>98</v>
       </c>
       <c r="E812" s="1">
-        <f>CONVERT(D812,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F812" s="1">
@@ -19924,7 +19924,7 @@
         <v>102</v>
       </c>
       <c r="E813" s="1">
-        <f>CONVERT(D813,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F813" s="1">
@@ -19948,7 +19948,7 @@
         <v>101</v>
       </c>
       <c r="E814" s="1">
-        <f>CONVERT(D814,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F814" s="1">
@@ -19972,7 +19972,7 @@
         <v>98</v>
       </c>
       <c r="E815" s="1">
-        <f>CONVERT(D815,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F815" s="1">
@@ -19996,7 +19996,7 @@
         <v>98</v>
       </c>
       <c r="E816" s="1">
-        <f>CONVERT(D816,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F816" s="1">
@@ -20020,7 +20020,7 @@
         <v>98</v>
       </c>
       <c r="E817" s="1">
-        <f>CONVERT(D817,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F817" s="1">
@@ -20044,7 +20044,7 @@
         <v>101</v>
       </c>
       <c r="E818" s="1">
-        <f>CONVERT(D818,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F818" s="1">
@@ -20068,7 +20068,7 @@
         <v>98</v>
       </c>
       <c r="E819" s="1">
-        <f>CONVERT(D819,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F819" s="1">
@@ -20092,7 +20092,7 @@
         <v>98</v>
       </c>
       <c r="E820" s="1">
-        <f>CONVERT(D820,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F820" s="1">
@@ -20116,7 +20116,7 @@
         <v>98</v>
       </c>
       <c r="E821" s="1">
-        <f>CONVERT(D821,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F821" s="1">
@@ -20140,7 +20140,7 @@
         <v>101</v>
       </c>
       <c r="E822" s="1">
-        <f>CONVERT(D822,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F822" s="1">
@@ -20164,7 +20164,7 @@
         <v>98</v>
       </c>
       <c r="E823" s="1">
-        <f>CONVERT(D823,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F823" s="1">
@@ -20188,7 +20188,7 @@
         <v>98</v>
       </c>
       <c r="E824" s="1">
-        <f>CONVERT(D824,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F824" s="1">
@@ -20212,7 +20212,7 @@
         <v>98</v>
       </c>
       <c r="E825" s="1">
-        <f>CONVERT(D825,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F825" s="1">
@@ -20236,7 +20236,7 @@
         <v>98</v>
       </c>
       <c r="E826" s="1">
-        <f>CONVERT(D826,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F826" s="1">
@@ -20260,7 +20260,7 @@
         <v>98</v>
       </c>
       <c r="E827" s="1">
-        <f>CONVERT(D827,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F827" s="1">
@@ -20284,7 +20284,7 @@
         <v>98</v>
       </c>
       <c r="E828" s="1">
-        <f>CONVERT(D828,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F828" s="1">
@@ -20308,7 +20308,7 @@
         <v>102</v>
       </c>
       <c r="E829" s="1">
-        <f>CONVERT(D829,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F829" s="1">
@@ -20332,7 +20332,7 @@
         <v>98</v>
       </c>
       <c r="E830" s="1">
-        <f>CONVERT(D830,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F830" s="1">
@@ -20356,7 +20356,7 @@
         <v>98</v>
       </c>
       <c r="E831" s="1">
-        <f>CONVERT(D831,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F831" s="1">
@@ -20380,7 +20380,7 @@
         <v>98</v>
       </c>
       <c r="E832" s="1">
-        <f>CONVERT(D832,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F832" s="1">
@@ -20404,7 +20404,7 @@
         <v>98</v>
       </c>
       <c r="E833" s="1">
-        <f>CONVERT(D833,"F","C")</f>
+        <f t="shared" si="12"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F833" s="1">
@@ -20428,7 +20428,7 @@
         <v>98</v>
       </c>
       <c r="E834" s="1">
-        <f>CONVERT(D834,"F","C")</f>
+        <f t="shared" ref="E834:E897" si="13">CONVERT(D834,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F834" s="1">
@@ -20452,7 +20452,7 @@
         <v>98</v>
       </c>
       <c r="E835" s="1">
-        <f>CONVERT(D835,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F835" s="1">
@@ -20476,7 +20476,7 @@
         <v>103</v>
       </c>
       <c r="E836" s="1">
-        <f>CONVERT(D836,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F836" s="1">
@@ -20500,7 +20500,7 @@
         <v>98</v>
       </c>
       <c r="E837" s="1">
-        <f>CONVERT(D837,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F837" s="1">
@@ -20524,7 +20524,7 @@
         <v>98</v>
       </c>
       <c r="E838" s="1">
-        <f>CONVERT(D838,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F838" s="1">
@@ -20548,7 +20548,7 @@
         <v>98</v>
       </c>
       <c r="E839" s="1">
-        <f>CONVERT(D839,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F839" s="1">
@@ -20572,7 +20572,7 @@
         <v>98</v>
       </c>
       <c r="E840" s="1">
-        <f>CONVERT(D840,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F840" s="1">
@@ -20596,7 +20596,7 @@
         <v>101</v>
       </c>
       <c r="E841" s="1">
-        <f>CONVERT(D841,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F841" s="1">
@@ -20620,7 +20620,7 @@
         <v>98</v>
       </c>
       <c r="E842" s="1">
-        <f>CONVERT(D842,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F842" s="1">
@@ -20644,7 +20644,7 @@
         <v>98</v>
       </c>
       <c r="E843" s="1">
-        <f>CONVERT(D843,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F843" s="1">
@@ -20668,7 +20668,7 @@
         <v>98</v>
       </c>
       <c r="E844" s="1">
-        <f>CONVERT(D844,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F844" s="1">
@@ -20692,7 +20692,7 @@
         <v>102</v>
       </c>
       <c r="E845" s="1">
-        <f>CONVERT(D845,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F845" s="1">
@@ -20716,7 +20716,7 @@
         <v>100</v>
       </c>
       <c r="E846" s="1">
-        <f>CONVERT(D846,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F846" s="1">
@@ -20740,7 +20740,7 @@
         <v>98</v>
       </c>
       <c r="E847" s="1">
-        <f>CONVERT(D847,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F847" s="1">
@@ -20764,7 +20764,7 @@
         <v>98</v>
       </c>
       <c r="E848" s="1">
-        <f>CONVERT(D848,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F848" s="1">
@@ -20788,7 +20788,7 @@
         <v>101</v>
       </c>
       <c r="E849" s="1">
-        <f>CONVERT(D849,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F849" s="1">
@@ -20812,7 +20812,7 @@
         <v>98</v>
       </c>
       <c r="E850" s="1">
-        <f>CONVERT(D850,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F850" s="1">
@@ -20836,7 +20836,7 @@
         <v>99</v>
       </c>
       <c r="E851" s="1">
-        <f>CONVERT(D851,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>37.222222222222221</v>
       </c>
       <c r="F851" s="1">
@@ -20860,7 +20860,7 @@
         <v>98</v>
       </c>
       <c r="E852" s="1">
-        <f>CONVERT(D852,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F852" s="1">
@@ -20884,7 +20884,7 @@
         <v>98</v>
       </c>
       <c r="E853" s="1">
-        <f>CONVERT(D853,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F853" s="1">
@@ -20908,7 +20908,7 @@
         <v>98</v>
       </c>
       <c r="E854" s="1">
-        <f>CONVERT(D854,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F854" s="1">
@@ -20932,7 +20932,7 @@
         <v>98</v>
       </c>
       <c r="E855" s="1">
-        <f>CONVERT(D855,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F855" s="1">
@@ -20956,7 +20956,7 @@
         <v>98</v>
       </c>
       <c r="E856" s="1">
-        <f>CONVERT(D856,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F856" s="1">
@@ -20980,7 +20980,7 @@
         <v>100</v>
       </c>
       <c r="E857" s="1">
-        <f>CONVERT(D857,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F857" s="1">
@@ -21004,7 +21004,7 @@
         <v>98</v>
       </c>
       <c r="E858" s="1">
-        <f>CONVERT(D858,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F858" s="1">
@@ -21028,7 +21028,7 @@
         <v>101</v>
       </c>
       <c r="E859" s="1">
-        <f>CONVERT(D859,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F859" s="1">
@@ -21052,7 +21052,7 @@
         <v>102</v>
       </c>
       <c r="E860" s="1">
-        <f>CONVERT(D860,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F860" s="1">
@@ -21076,7 +21076,7 @@
         <v>101</v>
       </c>
       <c r="E861" s="1">
-        <f>CONVERT(D861,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F861" s="1">
@@ -21100,7 +21100,7 @@
         <v>101</v>
       </c>
       <c r="E862" s="1">
-        <f>CONVERT(D862,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F862" s="1">
@@ -21124,7 +21124,7 @@
         <v>101</v>
       </c>
       <c r="E863" s="1">
-        <f>CONVERT(D863,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F863" s="1">
@@ -21148,7 +21148,7 @@
         <v>102</v>
       </c>
       <c r="E864" s="1">
-        <f>CONVERT(D864,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F864" s="1">
@@ -21172,7 +21172,7 @@
         <v>101</v>
       </c>
       <c r="E865" s="1">
-        <f>CONVERT(D865,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F865" s="1">
@@ -21196,7 +21196,7 @@
         <v>98</v>
       </c>
       <c r="E866" s="1">
-        <f>CONVERT(D866,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F866" s="1">
@@ -21220,7 +21220,7 @@
         <v>98</v>
       </c>
       <c r="E867" s="1">
-        <f>CONVERT(D867,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F867" s="1">
@@ -21244,7 +21244,7 @@
         <v>98</v>
       </c>
       <c r="E868" s="1">
-        <f>CONVERT(D868,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F868" s="1">
@@ -21268,7 +21268,7 @@
         <v>101</v>
       </c>
       <c r="E869" s="1">
-        <f>CONVERT(D869,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F869" s="1">
@@ -21292,7 +21292,7 @@
         <v>98</v>
       </c>
       <c r="E870" s="1">
-        <f>CONVERT(D870,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F870" s="1">
@@ -21316,7 +21316,7 @@
         <v>98</v>
       </c>
       <c r="E871" s="1">
-        <f>CONVERT(D871,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F871" s="1">
@@ -21340,7 +21340,7 @@
         <v>98</v>
       </c>
       <c r="E872" s="1">
-        <f>CONVERT(D872,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F872" s="1">
@@ -21364,7 +21364,7 @@
         <v>98</v>
       </c>
       <c r="E873" s="1">
-        <f>CONVERT(D873,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F873" s="1">
@@ -21388,7 +21388,7 @@
         <v>102</v>
       </c>
       <c r="E874" s="1">
-        <f>CONVERT(D874,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F874" s="1">
@@ -21412,7 +21412,7 @@
         <v>98</v>
       </c>
       <c r="E875" s="1">
-        <f>CONVERT(D875,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F875" s="1">
@@ -21436,7 +21436,7 @@
         <v>100</v>
       </c>
       <c r="E876" s="1">
-        <f>CONVERT(D876,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F876" s="1">
@@ -21460,7 +21460,7 @@
         <v>101</v>
       </c>
       <c r="E877" s="1">
-        <f>CONVERT(D877,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F877" s="1">
@@ -21484,7 +21484,7 @@
         <v>98</v>
       </c>
       <c r="E878" s="1">
-        <f>CONVERT(D878,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F878" s="1">
@@ -21508,7 +21508,7 @@
         <v>98</v>
       </c>
       <c r="E879" s="1">
-        <f>CONVERT(D879,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F879" s="1">
@@ -21532,7 +21532,7 @@
         <v>98</v>
       </c>
       <c r="E880" s="1">
-        <f>CONVERT(D880,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F880" s="1">
@@ -21556,7 +21556,7 @@
         <v>98</v>
       </c>
       <c r="E881" s="1">
-        <f>CONVERT(D881,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F881" s="1">
@@ -21580,7 +21580,7 @@
         <v>98</v>
       </c>
       <c r="E882" s="1">
-        <f>CONVERT(D882,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F882" s="1">
@@ -21604,7 +21604,7 @@
         <v>98</v>
       </c>
       <c r="E883" s="1">
-        <f>CONVERT(D883,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F883" s="1">
@@ -21628,7 +21628,7 @@
         <v>98</v>
       </c>
       <c r="E884" s="1">
-        <f>CONVERT(D884,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F884" s="1">
@@ -21652,7 +21652,7 @@
         <v>98</v>
       </c>
       <c r="E885" s="1">
-        <f>CONVERT(D885,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F885" s="1">
@@ -21676,7 +21676,7 @@
         <v>98</v>
       </c>
       <c r="E886" s="1">
-        <f>CONVERT(D886,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F886" s="1">
@@ -21700,7 +21700,7 @@
         <v>98</v>
       </c>
       <c r="E887" s="1">
-        <f>CONVERT(D887,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F887" s="1">
@@ -21724,7 +21724,7 @@
         <v>98</v>
       </c>
       <c r="E888" s="1">
-        <f>CONVERT(D888,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F888" s="1">
@@ -21748,7 +21748,7 @@
         <v>98</v>
       </c>
       <c r="E889" s="1">
-        <f>CONVERT(D889,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F889" s="1">
@@ -21772,7 +21772,7 @@
         <v>98</v>
       </c>
       <c r="E890" s="1">
-        <f>CONVERT(D890,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F890" s="1">
@@ -21796,7 +21796,7 @@
         <v>98</v>
       </c>
       <c r="E891" s="1">
-        <f>CONVERT(D891,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F891" s="1">
@@ -21820,7 +21820,7 @@
         <v>101</v>
       </c>
       <c r="E892" s="1">
-        <f>CONVERT(D892,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F892" s="1">
@@ -21844,7 +21844,7 @@
         <v>102</v>
       </c>
       <c r="E893" s="1">
-        <f>CONVERT(D893,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F893" s="1">
@@ -21868,7 +21868,7 @@
         <v>101</v>
       </c>
       <c r="E894" s="1">
-        <f>CONVERT(D894,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F894" s="1">
@@ -21892,7 +21892,7 @@
         <v>98</v>
       </c>
       <c r="E895" s="1">
-        <f>CONVERT(D895,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F895" s="1">
@@ -21916,7 +21916,7 @@
         <v>98</v>
       </c>
       <c r="E896" s="1">
-        <f>CONVERT(D896,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F896" s="1">
@@ -21940,7 +21940,7 @@
         <v>98</v>
       </c>
       <c r="E897" s="1">
-        <f>CONVERT(D897,"F","C")</f>
+        <f t="shared" si="13"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F897" s="1">
@@ -21964,7 +21964,7 @@
         <v>98</v>
       </c>
       <c r="E898" s="1">
-        <f>CONVERT(D898,"F","C")</f>
+        <f t="shared" ref="E898:E961" si="14">CONVERT(D898,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F898" s="1">
@@ -21988,7 +21988,7 @@
         <v>98</v>
       </c>
       <c r="E899" s="1">
-        <f>CONVERT(D899,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F899" s="1">
@@ -22012,7 +22012,7 @@
         <v>98</v>
       </c>
       <c r="E900" s="1">
-        <f>CONVERT(D900,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F900" s="1">
@@ -22036,7 +22036,7 @@
         <v>98</v>
       </c>
       <c r="E901" s="1">
-        <f>CONVERT(D901,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F901" s="1">
@@ -22060,7 +22060,7 @@
         <v>98</v>
       </c>
       <c r="E902" s="1">
-        <f>CONVERT(D902,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F902" s="1">
@@ -22084,7 +22084,7 @@
         <v>98</v>
       </c>
       <c r="E903" s="1">
-        <f>CONVERT(D903,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F903" s="1">
@@ -22108,7 +22108,7 @@
         <v>102</v>
       </c>
       <c r="E904" s="1">
-        <f>CONVERT(D904,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F904" s="1">
@@ -22132,7 +22132,7 @@
         <v>98</v>
       </c>
       <c r="E905" s="1">
-        <f>CONVERT(D905,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F905" s="1">
@@ -22156,7 +22156,7 @@
         <v>98</v>
       </c>
       <c r="E906" s="1">
-        <f>CONVERT(D906,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F906" s="1">
@@ -22180,7 +22180,7 @@
         <v>98</v>
       </c>
       <c r="E907" s="1">
-        <f>CONVERT(D907,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F907" s="1">
@@ -22204,7 +22204,7 @@
         <v>98</v>
       </c>
       <c r="E908" s="1">
-        <f>CONVERT(D908,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F908" s="1">
@@ -22228,7 +22228,7 @@
         <v>98</v>
       </c>
       <c r="E909" s="1">
-        <f>CONVERT(D909,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F909" s="1">
@@ -22252,11 +22252,11 @@
         <v>98</v>
       </c>
       <c r="E910" s="1">
-        <f>CONVERT(D910,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F910" s="1">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="G910" s="1" t="s">
         <v>7</v>
@@ -22276,7 +22276,7 @@
         <v>98</v>
       </c>
       <c r="E911" s="1">
-        <f>CONVERT(D911,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F911" s="1">
@@ -22300,7 +22300,7 @@
         <v>98</v>
       </c>
       <c r="E912" s="1">
-        <f>CONVERT(D912,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F912" s="1">
@@ -22324,7 +22324,7 @@
         <v>101</v>
       </c>
       <c r="E913" s="1">
-        <f>CONVERT(D913,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F913" s="1">
@@ -22348,7 +22348,7 @@
         <v>101</v>
       </c>
       <c r="E914" s="1">
-        <f>CONVERT(D914,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F914" s="1">
@@ -22372,7 +22372,7 @@
         <v>101</v>
       </c>
       <c r="E915" s="1">
-        <f>CONVERT(D915,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F915" s="1">
@@ -22396,7 +22396,7 @@
         <v>102</v>
       </c>
       <c r="E916" s="1">
-        <f>CONVERT(D916,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F916" s="1">
@@ -22420,7 +22420,7 @@
         <v>101</v>
       </c>
       <c r="E917" s="1">
-        <f>CONVERT(D917,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F917" s="1">
@@ -22444,7 +22444,7 @@
         <v>98</v>
       </c>
       <c r="E918" s="1">
-        <f>CONVERT(D918,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F918" s="1">
@@ -22468,7 +22468,7 @@
         <v>98</v>
       </c>
       <c r="E919" s="1">
-        <f>CONVERT(D919,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F919" s="1">
@@ -22492,7 +22492,7 @@
         <v>98</v>
       </c>
       <c r="E920" s="1">
-        <f>CONVERT(D920,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F920" s="1">
@@ -22516,7 +22516,7 @@
         <v>98</v>
       </c>
       <c r="E921" s="1">
-        <f>CONVERT(D921,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F921" s="1">
@@ -22540,7 +22540,7 @@
         <v>98</v>
       </c>
       <c r="E922" s="1">
-        <f>CONVERT(D922,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F922" s="1">
@@ -22564,7 +22564,7 @@
         <v>98</v>
       </c>
       <c r="E923" s="1">
-        <f>CONVERT(D923,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F923" s="1">
@@ -22588,7 +22588,7 @@
         <v>102</v>
       </c>
       <c r="E924" s="1">
-        <f>CONVERT(D924,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F924" s="1">
@@ -22612,7 +22612,7 @@
         <v>98</v>
       </c>
       <c r="E925" s="1">
-        <f>CONVERT(D925,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F925" s="1">
@@ -22636,7 +22636,7 @@
         <v>98</v>
       </c>
       <c r="E926" s="1">
-        <f>CONVERT(D926,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F926" s="1">
@@ -22660,7 +22660,7 @@
         <v>98</v>
       </c>
       <c r="E927" s="1">
-        <f>CONVERT(D927,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F927" s="1">
@@ -22684,7 +22684,7 @@
         <v>98</v>
       </c>
       <c r="E928" s="1">
-        <f>CONVERT(D928,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F928" s="1">
@@ -22708,7 +22708,7 @@
         <v>98</v>
       </c>
       <c r="E929" s="1">
-        <f>CONVERT(D929,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F929" s="1">
@@ -22732,7 +22732,7 @@
         <v>100</v>
       </c>
       <c r="E930" s="1">
-        <f>CONVERT(D930,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F930" s="1">
@@ -22756,7 +22756,7 @@
         <v>98</v>
       </c>
       <c r="E931" s="1">
-        <f>CONVERT(D931,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F931" s="1">
@@ -22780,7 +22780,7 @@
         <v>98</v>
       </c>
       <c r="E932" s="1">
-        <f>CONVERT(D932,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F932" s="1">
@@ -22804,7 +22804,7 @@
         <v>98</v>
       </c>
       <c r="E933" s="1">
-        <f>CONVERT(D933,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F933" s="1">
@@ -22828,7 +22828,7 @@
         <v>98</v>
       </c>
       <c r="E934" s="1">
-        <f>CONVERT(D934,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F934" s="1">
@@ -22852,7 +22852,7 @@
         <v>98</v>
       </c>
       <c r="E935" s="1">
-        <f>CONVERT(D935,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F935" s="1">
@@ -22876,7 +22876,7 @@
         <v>102</v>
       </c>
       <c r="E936" s="1">
-        <f>CONVERT(D936,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F936" s="1">
@@ -22900,7 +22900,7 @@
         <v>98</v>
       </c>
       <c r="E937" s="1">
-        <f>CONVERT(D937,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F937" s="1">
@@ -22924,7 +22924,7 @@
         <v>98</v>
       </c>
       <c r="E938" s="1">
-        <f>CONVERT(D938,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F938" s="1">
@@ -22948,7 +22948,7 @@
         <v>98</v>
       </c>
       <c r="E939" s="1">
-        <f>CONVERT(D939,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F939" s="1">
@@ -22972,7 +22972,7 @@
         <v>98</v>
       </c>
       <c r="E940" s="1">
-        <f>CONVERT(D940,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F940" s="1">
@@ -22996,7 +22996,7 @@
         <v>98</v>
       </c>
       <c r="E941" s="1">
-        <f>CONVERT(D941,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F941" s="1">
@@ -23020,7 +23020,7 @@
         <v>102</v>
       </c>
       <c r="E942" s="1">
-        <f>CONVERT(D942,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F942" s="1">
@@ -23044,7 +23044,7 @@
         <v>98</v>
       </c>
       <c r="E943" s="1">
-        <f>CONVERT(D943,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F943" s="1">
@@ -23068,7 +23068,7 @@
         <v>98</v>
       </c>
       <c r="E944" s="1">
-        <f>CONVERT(D944,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F944" s="1">
@@ -23092,7 +23092,7 @@
         <v>98</v>
       </c>
       <c r="E945" s="1">
-        <f>CONVERT(D945,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F945" s="1">
@@ -23116,7 +23116,7 @@
         <v>98</v>
       </c>
       <c r="E946" s="1">
-        <f>CONVERT(D946,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F946" s="1">
@@ -23140,7 +23140,7 @@
         <v>98</v>
       </c>
       <c r="E947" s="1">
-        <f>CONVERT(D947,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F947" s="1">
@@ -23164,7 +23164,7 @@
         <v>101</v>
       </c>
       <c r="E948" s="1">
-        <f>CONVERT(D948,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F948" s="1">
@@ -23188,7 +23188,7 @@
         <v>98</v>
       </c>
       <c r="E949" s="1">
-        <f>CONVERT(D949,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F949" s="1">
@@ -23212,7 +23212,7 @@
         <v>103</v>
       </c>
       <c r="E950" s="1">
-        <f>CONVERT(D950,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F950" s="1">
@@ -23236,7 +23236,7 @@
         <v>98</v>
       </c>
       <c r="E951" s="1">
-        <f>CONVERT(D951,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F951" s="1">
@@ -23260,7 +23260,7 @@
         <v>98</v>
       </c>
       <c r="E952" s="1">
-        <f>CONVERT(D952,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F952" s="1">
@@ -23284,7 +23284,7 @@
         <v>102</v>
       </c>
       <c r="E953" s="1">
-        <f>CONVERT(D953,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F953" s="1">
@@ -23308,7 +23308,7 @@
         <v>98</v>
       </c>
       <c r="E954" s="1">
-        <f>CONVERT(D954,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F954" s="1">
@@ -23332,7 +23332,7 @@
         <v>98</v>
       </c>
       <c r="E955" s="1">
-        <f>CONVERT(D955,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F955" s="1">
@@ -23356,7 +23356,7 @@
         <v>98</v>
       </c>
       <c r="E956" s="1">
-        <f>CONVERT(D956,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F956" s="1">
@@ -23380,7 +23380,7 @@
         <v>98</v>
       </c>
       <c r="E957" s="1">
-        <f>CONVERT(D957,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F957" s="1">
@@ -23404,7 +23404,7 @@
         <v>98</v>
       </c>
       <c r="E958" s="1">
-        <f>CONVERT(D958,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F958" s="1">
@@ -23428,7 +23428,7 @@
         <v>101</v>
       </c>
       <c r="E959" s="1">
-        <f>CONVERT(D959,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F959" s="1">
@@ -23452,7 +23452,7 @@
         <v>98</v>
       </c>
       <c r="E960" s="1">
-        <f>CONVERT(D960,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F960" s="1">
@@ -23476,7 +23476,7 @@
         <v>101</v>
       </c>
       <c r="E961" s="1">
-        <f>CONVERT(D961,"F","C")</f>
+        <f t="shared" si="14"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F961" s="1">
@@ -23500,7 +23500,7 @@
         <v>98</v>
       </c>
       <c r="E962" s="1">
-        <f>CONVERT(D962,"F","C")</f>
+        <f t="shared" ref="E962:E1025" si="15">CONVERT(D962,"F","C")</f>
         <v>36.666666666666664</v>
       </c>
       <c r="F962" s="1">
@@ -23524,7 +23524,7 @@
         <v>98</v>
       </c>
       <c r="E963" s="1">
-        <f>CONVERT(D963,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F963" s="1">
@@ -23548,7 +23548,7 @@
         <v>98</v>
       </c>
       <c r="E964" s="1">
-        <f>CONVERT(D964,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F964" s="1">
@@ -23572,7 +23572,7 @@
         <v>102</v>
       </c>
       <c r="E965" s="1">
-        <f>CONVERT(D965,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F965" s="1">
@@ -23596,7 +23596,7 @@
         <v>98</v>
       </c>
       <c r="E966" s="1">
-        <f>CONVERT(D966,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F966" s="1">
@@ -23620,7 +23620,7 @@
         <v>98</v>
       </c>
       <c r="E967" s="1">
-        <f>CONVERT(D967,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F967" s="1">
@@ -23644,7 +23644,7 @@
         <v>98</v>
       </c>
       <c r="E968" s="1">
-        <f>CONVERT(D968,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F968" s="1">
@@ -23668,7 +23668,7 @@
         <v>98</v>
       </c>
       <c r="E969" s="1">
-        <f>CONVERT(D969,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F969" s="1">
@@ -23692,7 +23692,7 @@
         <v>98</v>
       </c>
       <c r="E970" s="1">
-        <f>CONVERT(D970,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F970" s="1">
@@ -23716,7 +23716,7 @@
         <v>98</v>
       </c>
       <c r="E971" s="1">
-        <f>CONVERT(D971,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F971" s="1">
@@ -23740,7 +23740,7 @@
         <v>103</v>
       </c>
       <c r="E972" s="1">
-        <f>CONVERT(D972,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F972" s="1">
@@ -23764,7 +23764,7 @@
         <v>101</v>
       </c>
       <c r="E973" s="1">
-        <f>CONVERT(D973,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F973" s="1">
@@ -23788,7 +23788,7 @@
         <v>98</v>
       </c>
       <c r="E974" s="1">
-        <f>CONVERT(D974,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F974" s="1">
@@ -23812,7 +23812,7 @@
         <v>102</v>
       </c>
       <c r="E975" s="1">
-        <f>CONVERT(D975,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F975" s="1">
@@ -23836,7 +23836,7 @@
         <v>98</v>
       </c>
       <c r="E976" s="1">
-        <f>CONVERT(D976,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F976" s="1">
@@ -23860,7 +23860,7 @@
         <v>98</v>
       </c>
       <c r="E977" s="1">
-        <f>CONVERT(D977,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F977" s="1">
@@ -23884,7 +23884,7 @@
         <v>98</v>
       </c>
       <c r="E978" s="1">
-        <f>CONVERT(D978,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F978" s="1">
@@ -23908,7 +23908,7 @@
         <v>98</v>
       </c>
       <c r="E979" s="1">
-        <f>CONVERT(D979,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F979" s="1">
@@ -23932,7 +23932,7 @@
         <v>100</v>
       </c>
       <c r="E980" s="1">
-        <f>CONVERT(D980,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>37.777777777777779</v>
       </c>
       <c r="F980" s="1">
@@ -23956,7 +23956,7 @@
         <v>98</v>
       </c>
       <c r="E981" s="1">
-        <f>CONVERT(D981,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F981" s="1">
@@ -23980,7 +23980,7 @@
         <v>98</v>
       </c>
       <c r="E982" s="1">
-        <f>CONVERT(D982,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F982" s="1">
@@ -24004,7 +24004,7 @@
         <v>98</v>
       </c>
       <c r="E983" s="1">
-        <f>CONVERT(D983,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F983" s="1">
@@ -24028,7 +24028,7 @@
         <v>101</v>
       </c>
       <c r="E984" s="1">
-        <f>CONVERT(D984,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F984" s="1">
@@ -24052,7 +24052,7 @@
         <v>98</v>
       </c>
       <c r="E985" s="1">
-        <f>CONVERT(D985,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F985" s="1">
@@ -24076,7 +24076,7 @@
         <v>102</v>
       </c>
       <c r="E986" s="1">
-        <f>CONVERT(D986,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F986" s="1">
@@ -24100,7 +24100,7 @@
         <v>98</v>
       </c>
       <c r="E987" s="1">
-        <f>CONVERT(D987,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F987" s="1">
@@ -24124,7 +24124,7 @@
         <v>101</v>
       </c>
       <c r="E988" s="1">
-        <f>CONVERT(D988,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F988" s="1">
@@ -24148,7 +24148,7 @@
         <v>101</v>
       </c>
       <c r="E989" s="1">
-        <f>CONVERT(D989,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F989" s="1">
@@ -24172,7 +24172,7 @@
         <v>101</v>
       </c>
       <c r="E990" s="1">
-        <f>CONVERT(D990,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F990" s="1">
@@ -24196,7 +24196,7 @@
         <v>102</v>
       </c>
       <c r="E991" s="1">
-        <f>CONVERT(D991,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F991" s="1">
@@ -24220,7 +24220,7 @@
         <v>101</v>
       </c>
       <c r="E992" s="1">
-        <f>CONVERT(D992,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F992" s="1">
@@ -24244,7 +24244,7 @@
         <v>98</v>
       </c>
       <c r="E993" s="1">
-        <f>CONVERT(D993,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F993" s="1">
@@ -24268,7 +24268,7 @@
         <v>101</v>
       </c>
       <c r="E994" s="1">
-        <f>CONVERT(D994,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F994" s="1">
@@ -24292,7 +24292,7 @@
         <v>98</v>
       </c>
       <c r="E995" s="1">
-        <f>CONVERT(D995,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F995" s="1">
@@ -24316,7 +24316,7 @@
         <v>98</v>
       </c>
       <c r="E996" s="1">
-        <f>CONVERT(D996,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F996" s="1">
@@ -24340,7 +24340,7 @@
         <v>98</v>
       </c>
       <c r="E997" s="1">
-        <f>CONVERT(D997,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F997" s="1">
@@ -24364,7 +24364,7 @@
         <v>102</v>
       </c>
       <c r="E998" s="1">
-        <f>CONVERT(D998,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F998" s="1">
@@ -24388,7 +24388,7 @@
         <v>98</v>
       </c>
       <c r="E999" s="1">
-        <f>CONVERT(D999,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F999" s="1">
@@ -24412,7 +24412,7 @@
         <v>98</v>
       </c>
       <c r="E1000" s="1">
-        <f>CONVERT(D1000,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1000" s="1">
@@ -24436,7 +24436,7 @@
         <v>98</v>
       </c>
       <c r="E1001" s="1">
-        <f>CONVERT(D1001,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1001" s="1">
@@ -24460,7 +24460,7 @@
         <v>102</v>
       </c>
       <c r="E1002" s="1">
-        <f>CONVERT(D1002,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F1002" s="1">
@@ -24484,7 +24484,7 @@
         <v>98</v>
       </c>
       <c r="E1003" s="1">
-        <f>CONVERT(D1003,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1003" s="1">
@@ -24508,7 +24508,7 @@
         <v>98</v>
       </c>
       <c r="E1004" s="1">
-        <f>CONVERT(D1004,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1004" s="1">
@@ -24532,7 +24532,7 @@
         <v>98</v>
       </c>
       <c r="E1005" s="1">
-        <f>CONVERT(D1005,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1005" s="1">
@@ -24556,7 +24556,7 @@
         <v>101</v>
       </c>
       <c r="E1006" s="1">
-        <f>CONVERT(D1006,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F1006" s="1">
@@ -24580,7 +24580,7 @@
         <v>103</v>
       </c>
       <c r="E1007" s="1">
-        <f>CONVERT(D1007,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>39.444444444444443</v>
       </c>
       <c r="F1007" s="1">
@@ -24604,7 +24604,7 @@
         <v>102</v>
       </c>
       <c r="E1008" s="1">
-        <f>CONVERT(D1008,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.888888888888886</v>
       </c>
       <c r="F1008" s="1">
@@ -24628,7 +24628,7 @@
         <v>98</v>
       </c>
       <c r="E1009" s="1">
-        <f>CONVERT(D1009,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1009" s="1">
@@ -24652,7 +24652,7 @@
         <v>98</v>
       </c>
       <c r="E1010" s="1">
-        <f>CONVERT(D1010,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1010" s="1">
@@ -24676,7 +24676,7 @@
         <v>98</v>
       </c>
       <c r="E1011" s="1">
-        <f>CONVERT(D1011,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1011" s="1">
@@ -24700,7 +24700,7 @@
         <v>98</v>
       </c>
       <c r="E1012" s="1">
-        <f>CONVERT(D1012,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1012" s="1">
@@ -24724,7 +24724,7 @@
         <v>98</v>
       </c>
       <c r="E1013" s="1">
-        <f>CONVERT(D1013,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1013" s="1">
@@ -24748,7 +24748,7 @@
         <v>98</v>
       </c>
       <c r="E1014" s="1">
-        <f>CONVERT(D1014,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>36.666666666666664</v>
       </c>
       <c r="F1014" s="1">
@@ -24772,7 +24772,7 @@
         <v>101</v>
       </c>
       <c r="E1015" s="1">
-        <f>CONVERT(D1015,"F","C")</f>
+        <f t="shared" si="15"/>
         <v>38.333333333333336</v>
       </c>
       <c r="F1015" s="1">
